--- a/RMI/RMI/media/Reporte/REPORTE_MENSUAL_INSTRUCTOR_DANILO_ASTUDILLO_final.xlsx
+++ b/RMI/RMI/media/Reporte/REPORTE_MENSUAL_INSTRUCTOR_DANILO_ASTUDILLO_final.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="96">
   <si>
     <t xml:space="preserve">    </t>
   </si>
@@ -275,12 +275,61 @@
   <si>
     <t>TODOS LOS APRENDICES</t>
   </si>
+  <si>
+    <t>DESARROLLO DE APLICACIONES WEB CON PHP.</t>
+  </si>
+  <si>
+    <t>14:00
+19:00</t>
+  </si>
+  <si>
+    <t>FUNDAMENTOS PHP</t>
+  </si>
+  <si>
+    <t>DESARROLLAR EL SISTEMA QUE CUMPLA CON LOS REQUERIMIENTOS DE LA SOLUCIÓN INFORMÁTICA</t>
+  </si>
+  <si>
+    <t>CONSTRUIR LA INTERFAZ DE USUARIO PARA ENTORNO WEB, APOYADO EN LA EVALUACIÓN DEL PROTOTIPO, DETERMINANDO LAS ENTRADAS Y SALIDAS REQUERIDAS EN EL DISEÑO Y DEFINIENDO LOS LINEAMIENTOS PARA LA NAVEGACIÓN, DE ACUERDO CON LAS NECESIDADES DEL USUARIO.</t>
+  </si>
+  <si>
+    <t>JAMES EDUARDO</t>
+  </si>
+  <si>
+    <t>MABEL</t>
+  </si>
+  <si>
+    <t>JHON EDINSON</t>
+  </si>
+  <si>
+    <t>GERSAIN DE JESUS</t>
+  </si>
+  <si>
+    <t>DIANA CAROLINA</t>
+  </si>
+  <si>
+    <t>AIDA LUCIA</t>
+  </si>
+  <si>
+    <t>VLADIMIR ANTONIO</t>
+  </si>
+  <si>
+    <t>YENNI LORENA</t>
+  </si>
+  <si>
+    <t>ALEXANDRA</t>
+  </si>
+  <si>
+    <t>YERSON CRISTIAN GAVINO</t>
+  </si>
+  <si>
+    <t>ANDRES FELIPE</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="52" x14ac:knownFonts="1">
+  <fonts count="51" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -545,13 +594,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF222222"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -670,7 +712,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="90">
+  <borders count="108">
     <border>
       <left/>
       <right/>
@@ -1500,43 +1542,6 @@
     </border>
     <border>
       <left/>
-      <right style="hair">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="hair">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="hair">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="hair">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="hair">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="hair">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top style="medium">
         <color indexed="64"/>
@@ -1579,32 +1584,6 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1735,12 +1714,321 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="hair">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="hair">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="hair">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="298">
+  <cellXfs count="343">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1863,15 +2151,6 @@
     <xf numFmtId="0" fontId="20" fillId="8" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="6" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1913,34 +2192,19 @@
     <xf numFmtId="0" fontId="20" fillId="9" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1948,378 +2212,20 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="42" fillId="10" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="10" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="10" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="30" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="30" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="30" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="30" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="30" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="30" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="29" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="39" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="29" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="19" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="29" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="30" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="30" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2387,70 +2293,587 @@
     <xf numFmtId="0" fontId="20" fillId="14" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="4" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="4" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="4" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="4" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="30" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="30" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="30" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="30" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="30" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="30" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="10" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="10" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="10" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="30" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="30" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="19" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="29" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="29" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="39" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="29" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="104" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="10" borderId="106" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="10" borderId="107" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="10" borderId="105" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="10" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="10" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="10" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="30" fillId="0" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="30" fillId="0" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="30" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -2487,7 +2910,7 @@
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2878,10 +3301,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:AJ1006"/>
+  <dimension ref="A2:AJ1011"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23:D27"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2905,34 +3328,34 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:36" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="217" t="s">
+      <c r="A2" s="198" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="136"/>
-      <c r="C2" s="136"/>
-      <c r="D2" s="187" t="s">
+      <c r="B2" s="257"/>
+      <c r="C2" s="257"/>
+      <c r="D2" s="228" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="188"/>
-      <c r="F2" s="188"/>
-      <c r="G2" s="188"/>
-      <c r="H2" s="188"/>
-      <c r="I2" s="188"/>
-      <c r="J2" s="188"/>
-      <c r="K2" s="188"/>
-      <c r="L2" s="188"/>
-      <c r="M2" s="188"/>
-      <c r="N2" s="188"/>
-      <c r="O2" s="188"/>
-      <c r="P2" s="188"/>
-      <c r="Q2" s="188"/>
-      <c r="R2" s="188"/>
-      <c r="S2" s="188"/>
-      <c r="T2" s="188"/>
-      <c r="U2" s="188"/>
-      <c r="V2" s="188"/>
-      <c r="W2" s="188"/>
-      <c r="X2" s="188"/>
+      <c r="E2" s="229"/>
+      <c r="F2" s="229"/>
+      <c r="G2" s="229"/>
+      <c r="H2" s="229"/>
+      <c r="I2" s="229"/>
+      <c r="J2" s="229"/>
+      <c r="K2" s="229"/>
+      <c r="L2" s="229"/>
+      <c r="M2" s="229"/>
+      <c r="N2" s="229"/>
+      <c r="O2" s="229"/>
+      <c r="P2" s="229"/>
+      <c r="Q2" s="229"/>
+      <c r="R2" s="229"/>
+      <c r="S2" s="229"/>
+      <c r="T2" s="229"/>
+      <c r="U2" s="229"/>
+      <c r="V2" s="229"/>
+      <c r="W2" s="229"/>
+      <c r="X2" s="229"/>
       <c r="Y2" s="1"/>
       <c r="Z2" s="2"/>
       <c r="AA2" s="1"/>
@@ -2947,38 +3370,38 @@
       <c r="AJ2" s="1"/>
     </row>
     <row r="3" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="218"/>
-      <c r="B3" s="136"/>
-      <c r="C3" s="136"/>
-      <c r="D3" s="138" t="s">
+      <c r="A3" s="199"/>
+      <c r="B3" s="257"/>
+      <c r="C3" s="257"/>
+      <c r="D3" s="259" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="138"/>
-      <c r="F3" s="138"/>
-      <c r="G3" s="139" t="s">
+      <c r="E3" s="259"/>
+      <c r="F3" s="259"/>
+      <c r="G3" s="260" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="139"/>
-      <c r="I3" s="139"/>
-      <c r="J3" s="139"/>
-      <c r="K3" s="139"/>
-      <c r="L3" s="139"/>
-      <c r="M3" s="139"/>
-      <c r="N3" s="139"/>
-      <c r="O3" s="139" t="s">
+      <c r="H3" s="260"/>
+      <c r="I3" s="260"/>
+      <c r="J3" s="260"/>
+      <c r="K3" s="260"/>
+      <c r="L3" s="260"/>
+      <c r="M3" s="260"/>
+      <c r="N3" s="260"/>
+      <c r="O3" s="260" t="s">
         <v>30</v>
       </c>
-      <c r="P3" s="139"/>
-      <c r="Q3" s="139"/>
-      <c r="R3" s="139"/>
-      <c r="S3" s="139"/>
-      <c r="T3" s="139"/>
-      <c r="U3" s="139"/>
-      <c r="V3" s="139"/>
-      <c r="W3" s="139" t="s">
+      <c r="P3" s="260"/>
+      <c r="Q3" s="260"/>
+      <c r="R3" s="260"/>
+      <c r="S3" s="260"/>
+      <c r="T3" s="260"/>
+      <c r="U3" s="260"/>
+      <c r="V3" s="260"/>
+      <c r="W3" s="260" t="s">
         <v>32</v>
       </c>
-      <c r="X3" s="139"/>
+      <c r="X3" s="260"/>
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
       <c r="AA3" s="2"/>
@@ -2993,36 +3416,36 @@
       <c r="AJ3" s="1"/>
     </row>
     <row r="4" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="218"/>
-      <c r="B4" s="136"/>
-      <c r="C4" s="136"/>
-      <c r="D4" s="138"/>
-      <c r="E4" s="138"/>
-      <c r="F4" s="138"/>
-      <c r="G4" s="140" t="s">
+      <c r="A4" s="199"/>
+      <c r="B4" s="257"/>
+      <c r="C4" s="257"/>
+      <c r="D4" s="259"/>
+      <c r="E4" s="259"/>
+      <c r="F4" s="259"/>
+      <c r="G4" s="261" t="s">
         <v>60</v>
       </c>
-      <c r="H4" s="140"/>
-      <c r="I4" s="140"/>
-      <c r="J4" s="140"/>
-      <c r="K4" s="140"/>
-      <c r="L4" s="140"/>
-      <c r="M4" s="140"/>
-      <c r="N4" s="140"/>
-      <c r="O4" s="141" t="s">
+      <c r="H4" s="261"/>
+      <c r="I4" s="261"/>
+      <c r="J4" s="261"/>
+      <c r="K4" s="261"/>
+      <c r="L4" s="261"/>
+      <c r="M4" s="261"/>
+      <c r="N4" s="261"/>
+      <c r="O4" s="262" t="s">
         <v>61</v>
       </c>
-      <c r="P4" s="142"/>
-      <c r="Q4" s="142"/>
-      <c r="R4" s="142"/>
-      <c r="S4" s="142"/>
-      <c r="T4" s="142"/>
-      <c r="U4" s="142"/>
-      <c r="V4" s="143"/>
-      <c r="W4" s="204" t="s">
+      <c r="P4" s="263"/>
+      <c r="Q4" s="263"/>
+      <c r="R4" s="263"/>
+      <c r="S4" s="263"/>
+      <c r="T4" s="263"/>
+      <c r="U4" s="263"/>
+      <c r="V4" s="264"/>
+      <c r="W4" s="185" t="s">
         <v>62</v>
       </c>
-      <c r="X4" s="205"/>
+      <c r="X4" s="186"/>
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
       <c r="AA4" s="2"/>
@@ -3037,36 +3460,36 @@
       <c r="AJ4" s="1"/>
     </row>
     <row r="5" spans="1:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="218"/>
-      <c r="B5" s="137" t="s">
+      <c r="A5" s="199"/>
+      <c r="B5" s="258" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="137"/>
-      <c r="D5" s="138"/>
-      <c r="E5" s="138"/>
-      <c r="F5" s="138"/>
-      <c r="G5" s="139" t="s">
+      <c r="C5" s="258"/>
+      <c r="D5" s="259"/>
+      <c r="E5" s="259"/>
+      <c r="F5" s="259"/>
+      <c r="G5" s="260" t="s">
         <v>1</v>
       </c>
-      <c r="H5" s="139"/>
-      <c r="I5" s="139"/>
-      <c r="J5" s="139"/>
-      <c r="K5" s="139"/>
-      <c r="L5" s="139"/>
-      <c r="M5" s="139"/>
-      <c r="N5" s="139"/>
-      <c r="O5" s="144" t="s">
+      <c r="H5" s="260"/>
+      <c r="I5" s="260"/>
+      <c r="J5" s="260"/>
+      <c r="K5" s="260"/>
+      <c r="L5" s="260"/>
+      <c r="M5" s="260"/>
+      <c r="N5" s="260"/>
+      <c r="O5" s="265" t="s">
         <v>31</v>
       </c>
-      <c r="P5" s="144"/>
-      <c r="Q5" s="144"/>
-      <c r="R5" s="144"/>
-      <c r="S5" s="144"/>
-      <c r="T5" s="144"/>
-      <c r="U5" s="144"/>
-      <c r="V5" s="144"/>
-      <c r="W5" s="206"/>
-      <c r="X5" s="207"/>
+      <c r="P5" s="265"/>
+      <c r="Q5" s="265"/>
+      <c r="R5" s="265"/>
+      <c r="S5" s="265"/>
+      <c r="T5" s="265"/>
+      <c r="U5" s="265"/>
+      <c r="V5" s="265"/>
+      <c r="W5" s="187"/>
+      <c r="X5" s="188"/>
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
       <c r="AA5" s="2"/>
@@ -3081,34 +3504,34 @@
       <c r="AJ5" s="1"/>
     </row>
     <row r="6" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="218"/>
-      <c r="B6" s="137"/>
-      <c r="C6" s="137"/>
-      <c r="D6" s="138"/>
-      <c r="E6" s="138"/>
-      <c r="F6" s="138"/>
-      <c r="G6" s="140">
+      <c r="A6" s="199"/>
+      <c r="B6" s="258"/>
+      <c r="C6" s="258"/>
+      <c r="D6" s="259"/>
+      <c r="E6" s="259"/>
+      <c r="F6" s="259"/>
+      <c r="G6" s="261">
         <v>10293852</v>
       </c>
-      <c r="H6" s="140"/>
-      <c r="I6" s="140"/>
-      <c r="J6" s="140"/>
-      <c r="K6" s="140"/>
-      <c r="L6" s="140"/>
-      <c r="M6" s="140"/>
-      <c r="N6" s="140"/>
-      <c r="O6" s="140">
+      <c r="H6" s="261"/>
+      <c r="I6" s="261"/>
+      <c r="J6" s="261"/>
+      <c r="K6" s="261"/>
+      <c r="L6" s="261"/>
+      <c r="M6" s="261"/>
+      <c r="N6" s="261"/>
+      <c r="O6" s="261">
         <v>3127318581</v>
       </c>
-      <c r="P6" s="140"/>
-      <c r="Q6" s="140"/>
-      <c r="R6" s="140"/>
-      <c r="S6" s="140"/>
-      <c r="T6" s="140"/>
-      <c r="U6" s="140"/>
-      <c r="V6" s="140"/>
-      <c r="W6" s="208"/>
-      <c r="X6" s="209"/>
+      <c r="P6" s="261"/>
+      <c r="Q6" s="261"/>
+      <c r="R6" s="261"/>
+      <c r="S6" s="261"/>
+      <c r="T6" s="261"/>
+      <c r="U6" s="261"/>
+      <c r="V6" s="261"/>
+      <c r="W6" s="189"/>
+      <c r="X6" s="190"/>
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
       <c r="AA6" s="2"/>
@@ -3123,30 +3546,30 @@
       <c r="AJ6" s="1"/>
     </row>
     <row r="7" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="218"/>
-      <c r="B7" s="137"/>
-      <c r="C7" s="137"/>
-      <c r="D7" s="138"/>
-      <c r="E7" s="138"/>
-      <c r="F7" s="138"/>
-      <c r="G7" s="210"/>
-      <c r="H7" s="211"/>
-      <c r="I7" s="211"/>
-      <c r="J7" s="211"/>
-      <c r="K7" s="211"/>
-      <c r="L7" s="211"/>
-      <c r="M7" s="211"/>
-      <c r="N7" s="211"/>
-      <c r="O7" s="211"/>
-      <c r="P7" s="211"/>
-      <c r="Q7" s="211"/>
-      <c r="R7" s="211"/>
-      <c r="S7" s="211"/>
-      <c r="T7" s="211"/>
-      <c r="U7" s="211"/>
-      <c r="V7" s="211"/>
-      <c r="W7" s="211"/>
-      <c r="X7" s="212"/>
+      <c r="A7" s="199"/>
+      <c r="B7" s="258"/>
+      <c r="C7" s="258"/>
+      <c r="D7" s="259"/>
+      <c r="E7" s="259"/>
+      <c r="F7" s="259"/>
+      <c r="G7" s="191"/>
+      <c r="H7" s="192"/>
+      <c r="I7" s="192"/>
+      <c r="J7" s="192"/>
+      <c r="K7" s="192"/>
+      <c r="L7" s="192"/>
+      <c r="M7" s="192"/>
+      <c r="N7" s="192"/>
+      <c r="O7" s="192"/>
+      <c r="P7" s="192"/>
+      <c r="Q7" s="192"/>
+      <c r="R7" s="192"/>
+      <c r="S7" s="192"/>
+      <c r="T7" s="192"/>
+      <c r="U7" s="192"/>
+      <c r="V7" s="192"/>
+      <c r="W7" s="192"/>
+      <c r="X7" s="193"/>
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
       <c r="AA7" s="1"/>
@@ -3175,16 +3598,16 @@
       <c r="L8" s="16"/>
       <c r="M8" s="16"/>
       <c r="N8" s="16"/>
-      <c r="O8" s="202"/>
-      <c r="P8" s="203"/>
-      <c r="Q8" s="203"/>
-      <c r="R8" s="203"/>
-      <c r="S8" s="203"/>
-      <c r="T8" s="203"/>
-      <c r="U8" s="203"/>
-      <c r="V8" s="203"/>
-      <c r="W8" s="203"/>
-      <c r="X8" s="16"/>
+      <c r="O8" s="183"/>
+      <c r="P8" s="184"/>
+      <c r="Q8" s="184"/>
+      <c r="R8" s="184"/>
+      <c r="S8" s="184"/>
+      <c r="T8" s="184"/>
+      <c r="U8" s="184"/>
+      <c r="V8" s="184"/>
+      <c r="W8" s="184"/>
+      <c r="X8" s="314"/>
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
       <c r="AA8" s="1"/>
@@ -3199,35 +3622,35 @@
       <c r="AJ8" s="1"/>
     </row>
     <row r="9" spans="1:36" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="213" t="s">
+      <c r="A9" s="194" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="214"/>
-      <c r="C9" s="214"/>
-      <c r="D9" s="214"/>
-      <c r="E9" s="214"/>
-      <c r="F9" s="214"/>
-      <c r="G9" s="214"/>
-      <c r="H9" s="214"/>
-      <c r="I9" s="214"/>
-      <c r="J9" s="214"/>
-      <c r="K9" s="214"/>
-      <c r="L9" s="214"/>
-      <c r="M9" s="214"/>
-      <c r="N9" s="214"/>
-      <c r="O9" s="214"/>
-      <c r="P9" s="214"/>
-      <c r="Q9" s="214"/>
-      <c r="R9" s="214"/>
-      <c r="S9" s="214"/>
-      <c r="T9" s="214"/>
-      <c r="U9" s="214"/>
-      <c r="V9" s="214"/>
-      <c r="W9" s="214"/>
-      <c r="X9" s="214"/>
-      <c r="Y9" s="227"/>
-      <c r="Z9" s="228"/>
-      <c r="AA9" s="98"/>
+      <c r="B9" s="195"/>
+      <c r="C9" s="195"/>
+      <c r="D9" s="195"/>
+      <c r="E9" s="195"/>
+      <c r="F9" s="195"/>
+      <c r="G9" s="195"/>
+      <c r="H9" s="195"/>
+      <c r="I9" s="195"/>
+      <c r="J9" s="195"/>
+      <c r="K9" s="195"/>
+      <c r="L9" s="195"/>
+      <c r="M9" s="195"/>
+      <c r="N9" s="195"/>
+      <c r="O9" s="195"/>
+      <c r="P9" s="195"/>
+      <c r="Q9" s="195"/>
+      <c r="R9" s="195"/>
+      <c r="S9" s="195"/>
+      <c r="T9" s="195"/>
+      <c r="U9" s="195"/>
+      <c r="V9" s="195"/>
+      <c r="W9" s="195"/>
+      <c r="X9" s="195"/>
+      <c r="Y9" s="131"/>
+      <c r="Z9" s="132"/>
+      <c r="AA9" s="89"/>
       <c r="AB9" s="1"/>
       <c r="AC9" s="1"/>
       <c r="AD9" s="1"/>
@@ -3239,61 +3662,61 @@
       <c r="AJ9" s="1"/>
     </row>
     <row r="10" spans="1:36" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="215" t="s">
+      <c r="A10" s="196" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="157" t="s">
+      <c r="B10" s="200" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="157" t="s">
+      <c r="C10" s="200" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="222" t="s">
+      <c r="D10" s="204" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="157" t="s">
+      <c r="E10" s="200" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="157" t="s">
+      <c r="F10" s="200" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="157" t="s">
+      <c r="G10" s="200" t="s">
         <v>8</v>
       </c>
-      <c r="H10" s="121" t="s">
+      <c r="H10" s="206" t="s">
         <v>6</v>
       </c>
-      <c r="I10" s="122"/>
-      <c r="J10" s="122"/>
-      <c r="K10" s="122"/>
-      <c r="L10" s="122"/>
-      <c r="M10" s="122"/>
+      <c r="I10" s="207"/>
+      <c r="J10" s="207"/>
+      <c r="K10" s="207"/>
+      <c r="L10" s="207"/>
+      <c r="M10" s="207"/>
       <c r="N10" s="17"/>
-      <c r="O10" s="149" t="s">
+      <c r="O10" s="180" t="s">
         <v>11</v>
       </c>
-      <c r="P10" s="151" t="s">
+      <c r="P10" s="178" t="s">
         <v>34</v>
       </c>
-      <c r="Q10" s="151" t="s">
+      <c r="Q10" s="178" t="s">
         <v>9</v>
       </c>
-      <c r="R10" s="157" t="s">
+      <c r="R10" s="200" t="s">
         <v>10</v>
       </c>
-      <c r="S10" s="191" t="s">
+      <c r="S10" s="237" t="s">
         <v>12</v>
       </c>
-      <c r="T10" s="122"/>
-      <c r="U10" s="122"/>
-      <c r="V10" s="122"/>
-      <c r="W10" s="122"/>
-      <c r="X10" s="122"/>
-      <c r="Y10" s="101" t="s">
+      <c r="T10" s="207"/>
+      <c r="U10" s="207"/>
+      <c r="V10" s="207"/>
+      <c r="W10" s="207"/>
+      <c r="X10" s="207"/>
+      <c r="Y10" s="268" t="s">
         <v>54</v>
       </c>
-      <c r="Z10" s="102"/>
-      <c r="AA10" s="103"/>
+      <c r="Z10" s="269"/>
+      <c r="AA10" s="270"/>
       <c r="AB10" s="1"/>
       <c r="AC10" s="1"/>
       <c r="AD10" s="1"/>
@@ -3305,13 +3728,13 @@
       <c r="AJ10" s="1"/>
     </row>
     <row r="11" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="216"/>
-      <c r="B11" s="194"/>
-      <c r="C11" s="194"/>
-      <c r="D11" s="223"/>
-      <c r="E11" s="194"/>
-      <c r="F11" s="194"/>
-      <c r="G11" s="194"/>
+      <c r="A11" s="197"/>
+      <c r="B11" s="181"/>
+      <c r="C11" s="181"/>
+      <c r="D11" s="205"/>
+      <c r="E11" s="181"/>
+      <c r="F11" s="181"/>
+      <c r="G11" s="181"/>
       <c r="H11" s="35" t="s">
         <v>13</v>
       </c>
@@ -3333,19 +3756,19 @@
       <c r="N11" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="O11" s="194"/>
-      <c r="P11" s="201"/>
-      <c r="Q11" s="200"/>
-      <c r="R11" s="194"/>
-      <c r="S11" s="192"/>
-      <c r="T11" s="193"/>
-      <c r="U11" s="193"/>
-      <c r="V11" s="193"/>
-      <c r="W11" s="193"/>
-      <c r="X11" s="193"/>
-      <c r="Y11" s="104"/>
-      <c r="Z11" s="105"/>
-      <c r="AA11" s="106"/>
+      <c r="O11" s="181"/>
+      <c r="P11" s="182"/>
+      <c r="Q11" s="179"/>
+      <c r="R11" s="181"/>
+      <c r="S11" s="238"/>
+      <c r="T11" s="239"/>
+      <c r="U11" s="239"/>
+      <c r="V11" s="239"/>
+      <c r="W11" s="239"/>
+      <c r="X11" s="239"/>
+      <c r="Y11" s="271"/>
+      <c r="Z11" s="272"/>
+      <c r="AA11" s="273"/>
       <c r="AB11" s="1"/>
       <c r="AC11" s="1"/>
       <c r="AD11" s="1"/>
@@ -3390,12 +3813,12 @@
       <c r="W12" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="X12" s="61" t="s">
+      <c r="X12" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="Y12" s="85"/>
-      <c r="Z12" s="86"/>
-      <c r="AA12" s="97"/>
+      <c r="Y12" s="77"/>
+      <c r="Z12" s="78"/>
+      <c r="AA12" s="88"/>
       <c r="AB12" s="1"/>
       <c r="AC12" s="1"/>
       <c r="AD12" s="1"/>
@@ -3407,65 +3830,65 @@
       <c r="AJ12" s="1"/>
     </row>
     <row r="13" spans="1:36" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="219">
+      <c r="A13" s="162">
         <v>1134021</v>
       </c>
-      <c r="B13" s="107" t="s">
+      <c r="B13" s="165" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="107" t="s">
+      <c r="C13" s="165" t="s">
         <v>65</v>
       </c>
-      <c r="D13" s="107">
+      <c r="D13" s="165">
         <v>60</v>
       </c>
-      <c r="E13" s="110" t="s">
+      <c r="E13" s="166" t="s">
         <v>49</v>
       </c>
-      <c r="F13" s="110" t="s">
+      <c r="F13" s="166" t="s">
         <v>50</v>
       </c>
-      <c r="G13" s="129">
+      <c r="G13" s="172">
         <v>12</v>
       </c>
-      <c r="H13" s="128"/>
-      <c r="I13" s="123"/>
-      <c r="J13" s="125"/>
-      <c r="K13" s="128" t="s">
+      <c r="H13" s="173"/>
+      <c r="I13" s="201"/>
+      <c r="J13" s="119"/>
+      <c r="K13" s="173" t="s">
         <v>55</v>
       </c>
-      <c r="L13" s="128"/>
-      <c r="M13" s="128"/>
-      <c r="N13" s="128"/>
-      <c r="O13" s="129" t="s">
+      <c r="L13" s="173"/>
+      <c r="M13" s="173"/>
+      <c r="N13" s="173"/>
+      <c r="O13" s="172" t="s">
         <v>57</v>
       </c>
-      <c r="P13" s="161"/>
-      <c r="Q13" s="161">
+      <c r="P13" s="202"/>
+      <c r="Q13" s="202">
         <v>12</v>
       </c>
-      <c r="R13" s="161"/>
+      <c r="R13" s="202"/>
       <c r="S13" s="43"/>
       <c r="T13" s="44"/>
       <c r="U13" s="46">
         <v>1</v>
       </c>
-      <c r="V13" s="254">
+      <c r="V13" s="94">
         <v>2</v>
       </c>
       <c r="W13" s="47">
         <v>3</v>
       </c>
-      <c r="X13" s="250">
+      <c r="X13" s="91">
         <v>4</v>
       </c>
-      <c r="Y13" s="274" t="s">
+      <c r="Y13" s="114" t="s">
         <v>68</v>
       </c>
-      <c r="Z13" s="274" t="s">
+      <c r="Z13" s="114" t="s">
         <v>73</v>
       </c>
-      <c r="AA13" s="274" t="s">
+      <c r="AA13" s="114" t="s">
         <v>77</v>
       </c>
       <c r="AB13" s="3"/>
@@ -3479,24 +3902,24 @@
       <c r="AJ13" s="3"/>
     </row>
     <row r="14" spans="1:36" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="220"/>
-      <c r="B14" s="108"/>
-      <c r="C14" s="108"/>
-      <c r="D14" s="108"/>
-      <c r="E14" s="111"/>
-      <c r="F14" s="111"/>
-      <c r="G14" s="108"/>
-      <c r="H14" s="108"/>
-      <c r="I14" s="124"/>
-      <c r="J14" s="125"/>
-      <c r="K14" s="108"/>
-      <c r="L14" s="108"/>
-      <c r="M14" s="108"/>
-      <c r="N14" s="108"/>
-      <c r="O14" s="108"/>
-      <c r="P14" s="162"/>
-      <c r="Q14" s="162"/>
-      <c r="R14" s="162"/>
+      <c r="A14" s="163"/>
+      <c r="B14" s="134"/>
+      <c r="C14" s="134"/>
+      <c r="D14" s="134"/>
+      <c r="E14" s="167"/>
+      <c r="F14" s="167"/>
+      <c r="G14" s="134"/>
+      <c r="H14" s="134"/>
+      <c r="I14" s="170"/>
+      <c r="J14" s="119"/>
+      <c r="K14" s="134"/>
+      <c r="L14" s="134"/>
+      <c r="M14" s="134"/>
+      <c r="N14" s="134"/>
+      <c r="O14" s="134"/>
+      <c r="P14" s="203"/>
+      <c r="Q14" s="203"/>
+      <c r="R14" s="203"/>
       <c r="S14" s="41">
         <v>6</v>
       </c>
@@ -3506,22 +3929,22 @@
       <c r="U14" s="41">
         <v>8</v>
       </c>
-      <c r="V14" s="255">
+      <c r="V14" s="95">
         <v>9</v>
       </c>
       <c r="W14" s="48">
         <v>10</v>
       </c>
-      <c r="X14" s="63">
+      <c r="X14" s="60">
         <v>11</v>
       </c>
-      <c r="Y14" s="274" t="s">
+      <c r="Y14" s="114" t="s">
         <v>69</v>
       </c>
-      <c r="Z14" s="274" t="s">
+      <c r="Z14" s="114" t="s">
         <v>74</v>
       </c>
-      <c r="AA14" s="274" t="s">
+      <c r="AA14" s="114" t="s">
         <v>78</v>
       </c>
       <c r="AB14" s="3"/>
@@ -3535,24 +3958,24 @@
       <c r="AJ14" s="3"/>
     </row>
     <row r="15" spans="1:36" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="220"/>
-      <c r="B15" s="108"/>
-      <c r="C15" s="108"/>
-      <c r="D15" s="108"/>
-      <c r="E15" s="111"/>
-      <c r="F15" s="111"/>
-      <c r="G15" s="108"/>
-      <c r="H15" s="108"/>
-      <c r="I15" s="124"/>
-      <c r="J15" s="125"/>
-      <c r="K15" s="108"/>
-      <c r="L15" s="108"/>
-      <c r="M15" s="108"/>
-      <c r="N15" s="108"/>
-      <c r="O15" s="108"/>
-      <c r="P15" s="162"/>
-      <c r="Q15" s="162"/>
-      <c r="R15" s="162"/>
+      <c r="A15" s="163"/>
+      <c r="B15" s="134"/>
+      <c r="C15" s="134"/>
+      <c r="D15" s="134"/>
+      <c r="E15" s="167"/>
+      <c r="F15" s="167"/>
+      <c r="G15" s="134"/>
+      <c r="H15" s="134"/>
+      <c r="I15" s="170"/>
+      <c r="J15" s="119"/>
+      <c r="K15" s="134"/>
+      <c r="L15" s="134"/>
+      <c r="M15" s="134"/>
+      <c r="N15" s="134"/>
+      <c r="O15" s="134"/>
+      <c r="P15" s="203"/>
+      <c r="Q15" s="203"/>
+      <c r="R15" s="203"/>
       <c r="S15" s="41">
         <v>13</v>
       </c>
@@ -3562,22 +3985,22 @@
       <c r="U15" s="41">
         <v>15</v>
       </c>
-      <c r="V15" s="255">
+      <c r="V15" s="95">
         <v>16</v>
       </c>
       <c r="W15" s="48">
         <v>17</v>
       </c>
-      <c r="X15" s="63">
+      <c r="X15" s="60">
         <v>18</v>
       </c>
-      <c r="Y15" s="274" t="s">
+      <c r="Y15" s="114" t="s">
         <v>70</v>
       </c>
-      <c r="Z15" s="274" t="s">
+      <c r="Z15" s="114" t="s">
         <v>59</v>
       </c>
-      <c r="AA15" s="79"/>
+      <c r="AA15" s="71"/>
       <c r="AB15" s="3"/>
       <c r="AC15" s="3"/>
       <c r="AD15" s="3"/>
@@ -3589,24 +4012,24 @@
       <c r="AJ15" s="3"/>
     </row>
     <row r="16" spans="1:36" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="220"/>
-      <c r="B16" s="108"/>
-      <c r="C16" s="108"/>
-      <c r="D16" s="108"/>
-      <c r="E16" s="111"/>
-      <c r="F16" s="111"/>
-      <c r="G16" s="108"/>
-      <c r="H16" s="108"/>
-      <c r="I16" s="124"/>
-      <c r="J16" s="125"/>
-      <c r="K16" s="108"/>
-      <c r="L16" s="108"/>
-      <c r="M16" s="108"/>
-      <c r="N16" s="108"/>
-      <c r="O16" s="108"/>
-      <c r="P16" s="162"/>
-      <c r="Q16" s="162"/>
-      <c r="R16" s="162"/>
+      <c r="A16" s="163"/>
+      <c r="B16" s="134"/>
+      <c r="C16" s="134"/>
+      <c r="D16" s="134"/>
+      <c r="E16" s="167"/>
+      <c r="F16" s="167"/>
+      <c r="G16" s="134"/>
+      <c r="H16" s="134"/>
+      <c r="I16" s="170"/>
+      <c r="J16" s="119"/>
+      <c r="K16" s="134"/>
+      <c r="L16" s="134"/>
+      <c r="M16" s="134"/>
+      <c r="N16" s="134"/>
+      <c r="O16" s="134"/>
+      <c r="P16" s="203"/>
+      <c r="Q16" s="203"/>
+      <c r="R16" s="203"/>
       <c r="S16" s="27">
         <v>20</v>
       </c>
@@ -3616,22 +4039,22 @@
       <c r="U16" s="27">
         <v>22</v>
       </c>
-      <c r="V16" s="256">
+      <c r="V16" s="96">
         <v>23</v>
       </c>
       <c r="W16" s="49">
         <v>24</v>
       </c>
-      <c r="X16" s="63">
+      <c r="X16" s="60">
         <v>25</v>
       </c>
-      <c r="Y16" s="274" t="s">
+      <c r="Y16" s="114" t="s">
         <v>71</v>
       </c>
-      <c r="Z16" s="274" t="s">
+      <c r="Z16" s="114" t="s">
         <v>75</v>
       </c>
-      <c r="AA16" s="79"/>
+      <c r="AA16" s="71"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
@@ -3643,24 +4066,24 @@
       <c r="AJ16" s="3"/>
     </row>
     <row r="17" spans="1:36" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="221"/>
-      <c r="B17" s="109"/>
-      <c r="C17" s="109"/>
-      <c r="D17" s="109"/>
-      <c r="E17" s="112"/>
-      <c r="F17" s="112"/>
-      <c r="G17" s="108"/>
-      <c r="H17" s="108"/>
-      <c r="I17" s="124"/>
-      <c r="J17" s="126"/>
-      <c r="K17" s="108"/>
-      <c r="L17" s="108"/>
-      <c r="M17" s="108"/>
-      <c r="N17" s="108"/>
-      <c r="O17" s="108"/>
-      <c r="P17" s="162"/>
-      <c r="Q17" s="162"/>
-      <c r="R17" s="162"/>
+      <c r="A17" s="164"/>
+      <c r="B17" s="135"/>
+      <c r="C17" s="135"/>
+      <c r="D17" s="135"/>
+      <c r="E17" s="168"/>
+      <c r="F17" s="168"/>
+      <c r="G17" s="134"/>
+      <c r="H17" s="134"/>
+      <c r="I17" s="170"/>
+      <c r="J17" s="120"/>
+      <c r="K17" s="134"/>
+      <c r="L17" s="134"/>
+      <c r="M17" s="134"/>
+      <c r="N17" s="134"/>
+      <c r="O17" s="134"/>
+      <c r="P17" s="203"/>
+      <c r="Q17" s="203"/>
+      <c r="R17" s="203"/>
       <c r="S17" s="50">
         <v>27</v>
       </c>
@@ -3668,16 +4091,16 @@
         <v>28</v>
       </c>
       <c r="U17" s="50"/>
-      <c r="V17" s="258"/>
+      <c r="V17" s="98"/>
       <c r="W17" s="50"/>
-      <c r="X17" s="62"/>
-      <c r="Y17" s="276" t="s">
+      <c r="X17" s="59"/>
+      <c r="Y17" s="115" t="s">
         <v>72</v>
       </c>
-      <c r="Z17" s="276" t="s">
+      <c r="Z17" s="115" t="s">
         <v>76</v>
       </c>
-      <c r="AA17" s="277"/>
+      <c r="AA17" s="116"/>
       <c r="AB17" s="3"/>
       <c r="AC17" s="3"/>
       <c r="AD17" s="3"/>
@@ -3689,63 +4112,63 @@
       <c r="AJ17" s="3"/>
     </row>
     <row r="18" spans="1:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="219">
+      <c r="A18" s="162">
         <v>1134021</v>
       </c>
-      <c r="B18" s="107" t="s">
+      <c r="B18" s="165" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="107" t="s">
+      <c r="C18" s="165" t="s">
         <v>65</v>
       </c>
-      <c r="D18" s="107">
+      <c r="D18" s="165">
         <v>60</v>
       </c>
-      <c r="E18" s="110" t="s">
+      <c r="E18" s="166" t="s">
         <v>49</v>
       </c>
-      <c r="F18" s="110" t="s">
+      <c r="F18" s="166" t="s">
         <v>50</v>
       </c>
-      <c r="G18" s="129">
+      <c r="G18" s="172">
         <v>17</v>
       </c>
-      <c r="H18" s="128"/>
-      <c r="I18" s="123"/>
-      <c r="J18" s="125"/>
-      <c r="K18" s="123" t="s">
+      <c r="H18" s="173"/>
+      <c r="I18" s="201"/>
+      <c r="J18" s="119"/>
+      <c r="K18" s="201" t="s">
         <v>56</v>
       </c>
-      <c r="L18" s="123"/>
-      <c r="M18" s="123"/>
-      <c r="N18" s="244"/>
-      <c r="O18" s="247" t="s">
+      <c r="L18" s="201"/>
+      <c r="M18" s="201"/>
+      <c r="N18" s="121"/>
+      <c r="O18" s="123" t="s">
         <v>57</v>
       </c>
-      <c r="P18" s="239"/>
-      <c r="Q18" s="242">
+      <c r="P18" s="143"/>
+      <c r="Q18" s="145">
         <v>12</v>
       </c>
-      <c r="R18" s="239"/>
-      <c r="S18" s="73"/>
+      <c r="R18" s="295"/>
+      <c r="S18" s="297"/>
       <c r="T18" s="44"/>
       <c r="U18" s="46">
         <v>1</v>
       </c>
-      <c r="V18" s="254">
+      <c r="V18" s="94">
         <v>2</v>
       </c>
       <c r="W18" s="47">
         <v>3</v>
       </c>
-      <c r="X18" s="250">
+      <c r="X18" s="298">
         <v>4</v>
       </c>
-      <c r="Y18" s="278" t="s">
+      <c r="Y18" s="147" t="s">
         <v>79</v>
       </c>
-      <c r="Z18" s="279"/>
-      <c r="AA18" s="280"/>
+      <c r="Z18" s="148"/>
+      <c r="AA18" s="149"/>
       <c r="AB18" s="3"/>
       <c r="AC18" s="3"/>
       <c r="AD18" s="3"/>
@@ -3757,25 +4180,25 @@
       <c r="AJ18" s="3"/>
     </row>
     <row r="19" spans="1:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="220"/>
-      <c r="B19" s="108"/>
-      <c r="C19" s="108"/>
-      <c r="D19" s="108"/>
-      <c r="E19" s="111"/>
-      <c r="F19" s="111"/>
-      <c r="G19" s="108"/>
-      <c r="H19" s="108"/>
-      <c r="I19" s="124"/>
-      <c r="J19" s="125"/>
-      <c r="K19" s="124"/>
-      <c r="L19" s="124"/>
-      <c r="M19" s="124"/>
-      <c r="N19" s="245"/>
-      <c r="O19" s="248"/>
-      <c r="P19" s="240"/>
-      <c r="Q19" s="243"/>
-      <c r="R19" s="240"/>
-      <c r="S19" s="74">
+      <c r="A19" s="163"/>
+      <c r="B19" s="134"/>
+      <c r="C19" s="134"/>
+      <c r="D19" s="134"/>
+      <c r="E19" s="167"/>
+      <c r="F19" s="167"/>
+      <c r="G19" s="134"/>
+      <c r="H19" s="134"/>
+      <c r="I19" s="170"/>
+      <c r="J19" s="119"/>
+      <c r="K19" s="170"/>
+      <c r="L19" s="170"/>
+      <c r="M19" s="170"/>
+      <c r="N19" s="122"/>
+      <c r="O19" s="124"/>
+      <c r="P19" s="144"/>
+      <c r="Q19" s="146"/>
+      <c r="R19" s="296"/>
+      <c r="S19" s="299">
         <v>6</v>
       </c>
       <c r="T19" s="42">
@@ -3784,18 +4207,18 @@
       <c r="U19" s="41">
         <v>8</v>
       </c>
-      <c r="V19" s="255">
+      <c r="V19" s="95">
         <v>9</v>
       </c>
       <c r="W19" s="48">
         <v>10</v>
       </c>
-      <c r="X19" s="63">
+      <c r="X19" s="300">
         <v>11</v>
       </c>
-      <c r="Y19" s="281"/>
-      <c r="Z19" s="275"/>
-      <c r="AA19" s="282"/>
+      <c r="Y19" s="150"/>
+      <c r="Z19" s="151"/>
+      <c r="AA19" s="152"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
@@ -3807,25 +4230,25 @@
       <c r="AJ19" s="3"/>
     </row>
     <row r="20" spans="1:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="220"/>
-      <c r="B20" s="108"/>
-      <c r="C20" s="108"/>
-      <c r="D20" s="108"/>
-      <c r="E20" s="111"/>
-      <c r="F20" s="111"/>
-      <c r="G20" s="108"/>
-      <c r="H20" s="108"/>
-      <c r="I20" s="124"/>
-      <c r="J20" s="125"/>
-      <c r="K20" s="124"/>
-      <c r="L20" s="124"/>
-      <c r="M20" s="124"/>
-      <c r="N20" s="245"/>
-      <c r="O20" s="248"/>
-      <c r="P20" s="240"/>
-      <c r="Q20" s="243"/>
-      <c r="R20" s="240"/>
-      <c r="S20" s="74">
+      <c r="A20" s="163"/>
+      <c r="B20" s="134"/>
+      <c r="C20" s="134"/>
+      <c r="D20" s="134"/>
+      <c r="E20" s="167"/>
+      <c r="F20" s="167"/>
+      <c r="G20" s="134"/>
+      <c r="H20" s="134"/>
+      <c r="I20" s="170"/>
+      <c r="J20" s="119"/>
+      <c r="K20" s="170"/>
+      <c r="L20" s="170"/>
+      <c r="M20" s="170"/>
+      <c r="N20" s="122"/>
+      <c r="O20" s="124"/>
+      <c r="P20" s="144"/>
+      <c r="Q20" s="146"/>
+      <c r="R20" s="296"/>
+      <c r="S20" s="299">
         <v>13</v>
       </c>
       <c r="T20" s="42">
@@ -3834,18 +4257,18 @@
       <c r="U20" s="41">
         <v>15</v>
       </c>
-      <c r="V20" s="255">
+      <c r="V20" s="95">
         <v>16</v>
       </c>
       <c r="W20" s="48">
         <v>17</v>
       </c>
-      <c r="X20" s="63">
+      <c r="X20" s="300">
         <v>18</v>
       </c>
-      <c r="Y20" s="281"/>
-      <c r="Z20" s="275"/>
-      <c r="AA20" s="282"/>
+      <c r="Y20" s="150"/>
+      <c r="Z20" s="151"/>
+      <c r="AA20" s="152"/>
       <c r="AB20" s="3"/>
       <c r="AC20" s="3"/>
       <c r="AD20" s="3"/>
@@ -3856,26 +4279,26 @@
       <c r="AI20" s="3"/>
       <c r="AJ20" s="3"/>
     </row>
-    <row r="21" spans="1:36" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="220"/>
-      <c r="B21" s="108"/>
-      <c r="C21" s="108"/>
-      <c r="D21" s="108"/>
-      <c r="E21" s="111"/>
-      <c r="F21" s="111"/>
-      <c r="G21" s="108"/>
-      <c r="H21" s="108"/>
-      <c r="I21" s="124"/>
-      <c r="J21" s="125"/>
-      <c r="K21" s="124"/>
-      <c r="L21" s="124"/>
-      <c r="M21" s="124"/>
-      <c r="N21" s="245"/>
-      <c r="O21" s="248"/>
-      <c r="P21" s="240"/>
-      <c r="Q21" s="243"/>
-      <c r="R21" s="240"/>
-      <c r="S21" s="75">
+    <row r="21" spans="1:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="163"/>
+      <c r="B21" s="134"/>
+      <c r="C21" s="134"/>
+      <c r="D21" s="134"/>
+      <c r="E21" s="167"/>
+      <c r="F21" s="167"/>
+      <c r="G21" s="134"/>
+      <c r="H21" s="134"/>
+      <c r="I21" s="170"/>
+      <c r="J21" s="119"/>
+      <c r="K21" s="170"/>
+      <c r="L21" s="170"/>
+      <c r="M21" s="170"/>
+      <c r="N21" s="122"/>
+      <c r="O21" s="124"/>
+      <c r="P21" s="144"/>
+      <c r="Q21" s="146"/>
+      <c r="R21" s="296"/>
+      <c r="S21" s="301">
         <v>20</v>
       </c>
       <c r="T21" s="51">
@@ -3884,18 +4307,18 @@
       <c r="U21" s="50">
         <v>22</v>
       </c>
-      <c r="V21" s="257">
+      <c r="V21" s="97">
         <v>23</v>
       </c>
-      <c r="W21" s="100">
+      <c r="W21" s="90">
         <v>24</v>
       </c>
-      <c r="X21" s="251">
+      <c r="X21" s="302">
         <v>25</v>
       </c>
-      <c r="Y21" s="283"/>
-      <c r="Z21" s="284"/>
-      <c r="AA21" s="285"/>
+      <c r="Y21" s="150"/>
+      <c r="Z21" s="151"/>
+      <c r="AA21" s="152"/>
       <c r="AB21" s="3"/>
       <c r="AC21" s="3"/>
       <c r="AD21" s="3"/>
@@ -3906,38 +4329,38 @@
       <c r="AI21" s="3"/>
       <c r="AJ21" s="3"/>
     </row>
-    <row r="22" spans="1:36" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="221"/>
-      <c r="B22" s="109"/>
-      <c r="C22" s="109"/>
-      <c r="D22" s="109"/>
-      <c r="E22" s="112"/>
-      <c r="F22" s="112"/>
-      <c r="G22" s="108"/>
-      <c r="H22" s="108"/>
-      <c r="I22" s="124"/>
-      <c r="J22" s="126"/>
-      <c r="K22" s="124"/>
-      <c r="L22" s="124"/>
-      <c r="M22" s="124"/>
-      <c r="N22" s="246"/>
-      <c r="O22" s="249"/>
-      <c r="P22" s="241"/>
-      <c r="Q22" s="243"/>
-      <c r="R22" s="241"/>
-      <c r="S22" s="78">
+    <row r="22" spans="1:36" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="164"/>
+      <c r="B22" s="135"/>
+      <c r="C22" s="135"/>
+      <c r="D22" s="135"/>
+      <c r="E22" s="167"/>
+      <c r="F22" s="167"/>
+      <c r="G22" s="134"/>
+      <c r="H22" s="134"/>
+      <c r="I22" s="170"/>
+      <c r="J22" s="120"/>
+      <c r="K22" s="170"/>
+      <c r="L22" s="170"/>
+      <c r="M22" s="170"/>
+      <c r="N22" s="122"/>
+      <c r="O22" s="124"/>
+      <c r="P22" s="144"/>
+      <c r="Q22" s="146"/>
+      <c r="R22" s="296"/>
+      <c r="S22" s="305">
         <v>27</v>
       </c>
-      <c r="T22" s="78">
+      <c r="T22" s="306">
         <v>28</v>
       </c>
-      <c r="U22" s="78"/>
-      <c r="V22" s="78"/>
-      <c r="W22" s="78"/>
-      <c r="X22" s="78"/>
-      <c r="Y22" s="286"/>
-      <c r="Z22" s="287"/>
-      <c r="AA22" s="288"/>
+      <c r="U22" s="306"/>
+      <c r="V22" s="306"/>
+      <c r="W22" s="306"/>
+      <c r="X22" s="307"/>
+      <c r="Y22" s="153"/>
+      <c r="Z22" s="154"/>
+      <c r="AA22" s="155"/>
       <c r="AB22" s="3"/>
       <c r="AC22" s="3"/>
       <c r="AD22" s="3"/>
@@ -3948,925 +4371,1029 @@
       <c r="AI22" s="3"/>
       <c r="AJ22" s="3"/>
     </row>
-    <row r="23" spans="1:36" s="81" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="219">
+    <row r="23" spans="1:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="317">
+        <v>1368630</v>
+      </c>
+      <c r="B23" s="172" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" s="172" t="s">
+        <v>82</v>
+      </c>
+      <c r="D23" s="333">
+        <v>20</v>
+      </c>
+      <c r="E23" s="324" t="s">
+        <v>83</v>
+      </c>
+      <c r="F23" s="321" t="s">
+        <v>84</v>
+      </c>
+      <c r="G23" s="327">
+        <v>22</v>
+      </c>
+      <c r="H23" s="330" t="s">
+        <v>81</v>
+      </c>
+      <c r="I23" s="285"/>
+      <c r="J23" s="288"/>
+      <c r="K23" s="285"/>
+      <c r="L23" s="285"/>
+      <c r="M23" s="285"/>
+      <c r="N23" s="291"/>
+      <c r="O23" s="336" t="s">
+        <v>58</v>
+      </c>
+      <c r="P23" s="311"/>
+      <c r="Q23" s="339">
+        <v>10</v>
+      </c>
+      <c r="R23" s="309"/>
+      <c r="S23" s="297"/>
+      <c r="T23" s="44"/>
+      <c r="U23" s="46">
+        <v>1</v>
+      </c>
+      <c r="V23" s="46">
+        <v>2</v>
+      </c>
+      <c r="W23" s="47">
+        <v>3</v>
+      </c>
+      <c r="X23" s="298">
+        <v>4</v>
+      </c>
+      <c r="Y23" s="147" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z23" s="148"/>
+      <c r="AA23" s="149"/>
+      <c r="AB23" s="3"/>
+      <c r="AC23" s="3"/>
+      <c r="AD23" s="3"/>
+      <c r="AE23" s="3"/>
+      <c r="AF23" s="3"/>
+      <c r="AG23" s="3"/>
+      <c r="AH23" s="3"/>
+      <c r="AI23" s="3"/>
+      <c r="AJ23" s="3"/>
+    </row>
+    <row r="24" spans="1:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="318"/>
+      <c r="B24" s="133"/>
+      <c r="C24" s="133"/>
+      <c r="D24" s="334"/>
+      <c r="E24" s="325"/>
+      <c r="F24" s="322"/>
+      <c r="G24" s="328"/>
+      <c r="H24" s="331"/>
+      <c r="I24" s="286"/>
+      <c r="J24" s="289"/>
+      <c r="K24" s="286"/>
+      <c r="L24" s="286"/>
+      <c r="M24" s="286"/>
+      <c r="N24" s="292"/>
+      <c r="O24" s="337"/>
+      <c r="P24" s="312"/>
+      <c r="Q24" s="340"/>
+      <c r="R24" s="294"/>
+      <c r="S24" s="299">
+        <v>6</v>
+      </c>
+      <c r="T24" s="42">
+        <v>7</v>
+      </c>
+      <c r="U24" s="41">
+        <v>8</v>
+      </c>
+      <c r="V24" s="56">
+        <v>9</v>
+      </c>
+      <c r="W24" s="48">
+        <v>10</v>
+      </c>
+      <c r="X24" s="300">
+        <v>11</v>
+      </c>
+      <c r="Y24" s="150"/>
+      <c r="Z24" s="151"/>
+      <c r="AA24" s="152"/>
+      <c r="AB24" s="3"/>
+      <c r="AC24" s="3"/>
+      <c r="AD24" s="3"/>
+      <c r="AE24" s="3"/>
+      <c r="AF24" s="3"/>
+      <c r="AG24" s="3"/>
+      <c r="AH24" s="3"/>
+      <c r="AI24" s="3"/>
+      <c r="AJ24" s="3"/>
+    </row>
+    <row r="25" spans="1:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="318"/>
+      <c r="B25" s="133"/>
+      <c r="C25" s="133"/>
+      <c r="D25" s="334"/>
+      <c r="E25" s="325"/>
+      <c r="F25" s="322"/>
+      <c r="G25" s="328"/>
+      <c r="H25" s="331"/>
+      <c r="I25" s="286"/>
+      <c r="J25" s="289"/>
+      <c r="K25" s="286"/>
+      <c r="L25" s="286"/>
+      <c r="M25" s="286"/>
+      <c r="N25" s="292"/>
+      <c r="O25" s="337"/>
+      <c r="P25" s="312"/>
+      <c r="Q25" s="340"/>
+      <c r="R25" s="294"/>
+      <c r="S25" s="299">
+        <v>13</v>
+      </c>
+      <c r="T25" s="42">
+        <v>14</v>
+      </c>
+      <c r="U25" s="41">
+        <v>15</v>
+      </c>
+      <c r="V25" s="56">
+        <v>16</v>
+      </c>
+      <c r="W25" s="48">
+        <v>17</v>
+      </c>
+      <c r="X25" s="300">
+        <v>18</v>
+      </c>
+      <c r="Y25" s="150"/>
+      <c r="Z25" s="151"/>
+      <c r="AA25" s="152"/>
+      <c r="AB25" s="3"/>
+      <c r="AC25" s="3"/>
+      <c r="AD25" s="3"/>
+      <c r="AE25" s="3"/>
+      <c r="AF25" s="3"/>
+      <c r="AG25" s="3"/>
+      <c r="AH25" s="3"/>
+      <c r="AI25" s="3"/>
+      <c r="AJ25" s="3"/>
+    </row>
+    <row r="26" spans="1:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="318"/>
+      <c r="B26" s="133"/>
+      <c r="C26" s="133"/>
+      <c r="D26" s="334"/>
+      <c r="E26" s="325"/>
+      <c r="F26" s="322"/>
+      <c r="G26" s="328"/>
+      <c r="H26" s="331"/>
+      <c r="I26" s="286"/>
+      <c r="J26" s="289"/>
+      <c r="K26" s="286"/>
+      <c r="L26" s="286"/>
+      <c r="M26" s="286"/>
+      <c r="N26" s="292"/>
+      <c r="O26" s="337"/>
+      <c r="P26" s="312"/>
+      <c r="Q26" s="340"/>
+      <c r="R26" s="294"/>
+      <c r="S26" s="315">
+        <v>20</v>
+      </c>
+      <c r="T26" s="51">
+        <v>21</v>
+      </c>
+      <c r="U26" s="50">
+        <v>22</v>
+      </c>
+      <c r="V26" s="98">
+        <v>23</v>
+      </c>
+      <c r="W26" s="90">
+        <v>24</v>
+      </c>
+      <c r="X26" s="302">
+        <v>25</v>
+      </c>
+      <c r="Y26" s="150"/>
+      <c r="Z26" s="151"/>
+      <c r="AA26" s="152"/>
+      <c r="AB26" s="3"/>
+      <c r="AC26" s="3"/>
+      <c r="AD26" s="3"/>
+      <c r="AE26" s="3"/>
+      <c r="AF26" s="3"/>
+      <c r="AG26" s="3"/>
+      <c r="AH26" s="3"/>
+      <c r="AI26" s="3"/>
+      <c r="AJ26" s="3"/>
+    </row>
+    <row r="27" spans="1:36" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="319"/>
+      <c r="B27" s="320"/>
+      <c r="C27" s="320"/>
+      <c r="D27" s="335"/>
+      <c r="E27" s="326"/>
+      <c r="F27" s="323"/>
+      <c r="G27" s="329"/>
+      <c r="H27" s="332"/>
+      <c r="I27" s="287"/>
+      <c r="J27" s="290"/>
+      <c r="K27" s="287"/>
+      <c r="L27" s="287"/>
+      <c r="M27" s="287"/>
+      <c r="N27" s="293"/>
+      <c r="O27" s="338"/>
+      <c r="P27" s="313"/>
+      <c r="Q27" s="341"/>
+      <c r="R27" s="310"/>
+      <c r="S27" s="316">
+        <v>27</v>
+      </c>
+      <c r="T27" s="303">
+        <v>28</v>
+      </c>
+      <c r="U27" s="303"/>
+      <c r="V27" s="303"/>
+      <c r="W27" s="303"/>
+      <c r="X27" s="304"/>
+      <c r="Y27" s="153"/>
+      <c r="Z27" s="154"/>
+      <c r="AA27" s="155"/>
+      <c r="AB27" s="3"/>
+      <c r="AC27" s="3"/>
+      <c r="AD27" s="3"/>
+      <c r="AE27" s="3"/>
+      <c r="AF27" s="3"/>
+      <c r="AG27" s="3"/>
+      <c r="AH27" s="3"/>
+      <c r="AI27" s="3"/>
+      <c r="AJ27" s="3"/>
+    </row>
+    <row r="28" spans="1:36" s="73" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="162">
         <v>1261227</v>
       </c>
-      <c r="B23" s="107" t="s">
+      <c r="B28" s="165" t="s">
         <v>63</v>
       </c>
-      <c r="C23" s="107" t="s">
+      <c r="C28" s="165" t="s">
         <v>64</v>
       </c>
-      <c r="D23" s="107">
+      <c r="D28" s="165">
         <v>60</v>
       </c>
-      <c r="E23" s="110" t="s">
+      <c r="E28" s="167" t="s">
         <v>51</v>
       </c>
-      <c r="F23" s="110" t="s">
+      <c r="F28" s="167" t="s">
         <v>52</v>
       </c>
-      <c r="G23" s="113">
+      <c r="G28" s="284">
         <v>18</v>
       </c>
-      <c r="H23" s="118" t="s">
+      <c r="H28" s="126" t="s">
         <v>66</v>
       </c>
-      <c r="I23" s="118" t="s">
+      <c r="I28" s="126" t="s">
         <v>66</v>
       </c>
-      <c r="J23" s="118" t="s">
+      <c r="J28" s="126" t="s">
         <v>66</v>
       </c>
-      <c r="K23" s="118" t="s">
+      <c r="K28" s="126" t="s">
         <v>66</v>
       </c>
-      <c r="L23" s="118" t="s">
+      <c r="L28" s="126" t="s">
         <v>66</v>
       </c>
-      <c r="M23" s="118" t="s">
-        <v>67</v>
-      </c>
-      <c r="N23" s="229"/>
-      <c r="O23" s="224" t="s">
+      <c r="M28" s="126"/>
+      <c r="N28" s="128"/>
+      <c r="O28" s="133" t="s">
         <v>58</v>
       </c>
-      <c r="P23" s="231"/>
-      <c r="Q23" s="234">
-        <v>84</v>
-      </c>
-      <c r="R23" s="236"/>
-      <c r="S23" s="77"/>
-      <c r="T23" s="77"/>
-      <c r="U23" s="260">
+      <c r="P28" s="136"/>
+      <c r="Q28" s="308">
+        <v>60</v>
+      </c>
+      <c r="R28" s="140"/>
+      <c r="S28" s="70"/>
+      <c r="T28" s="70"/>
+      <c r="U28" s="100">
         <v>1</v>
       </c>
-      <c r="V23" s="259">
+      <c r="V28" s="99">
         <v>2</v>
       </c>
-      <c r="W23" s="259">
+      <c r="W28" s="99">
         <v>3</v>
       </c>
-      <c r="X23" s="261">
+      <c r="X28" s="61">
         <v>4</v>
       </c>
-      <c r="Y23" s="289" t="s">
+      <c r="Y28" s="156" t="s">
         <v>79</v>
       </c>
-      <c r="Z23" s="290"/>
-      <c r="AA23" s="291"/>
-      <c r="AB23" s="80"/>
-      <c r="AC23" s="80"/>
-      <c r="AD23" s="80"/>
-      <c r="AE23" s="80"/>
-      <c r="AF23" s="80"/>
-      <c r="AG23" s="80"/>
-      <c r="AH23" s="80"/>
-      <c r="AI23" s="80"/>
-      <c r="AJ23" s="80"/>
-    </row>
-    <row r="24" spans="1:36" s="60" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="220"/>
-      <c r="B24" s="108"/>
-      <c r="C24" s="108"/>
-      <c r="D24" s="108"/>
-      <c r="E24" s="111"/>
-      <c r="F24" s="111"/>
-      <c r="G24" s="114"/>
-      <c r="H24" s="119"/>
-      <c r="I24" s="119"/>
-      <c r="J24" s="119"/>
-      <c r="K24" s="119"/>
-      <c r="L24" s="119"/>
-      <c r="M24" s="119"/>
-      <c r="N24" s="127"/>
-      <c r="O24" s="108"/>
-      <c r="P24" s="232"/>
-      <c r="Q24" s="235"/>
-      <c r="R24" s="237"/>
-      <c r="S24" s="262">
+      <c r="Z28" s="157"/>
+      <c r="AA28" s="158"/>
+      <c r="AB28" s="72"/>
+      <c r="AC28" s="72"/>
+      <c r="AD28" s="72"/>
+      <c r="AE28" s="72"/>
+      <c r="AF28" s="72"/>
+      <c r="AG28" s="72"/>
+      <c r="AH28" s="72"/>
+      <c r="AI28" s="72"/>
+      <c r="AJ28" s="72"/>
+    </row>
+    <row r="29" spans="1:36" s="57" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="163"/>
+      <c r="B29" s="134"/>
+      <c r="C29" s="134"/>
+      <c r="D29" s="134"/>
+      <c r="E29" s="167"/>
+      <c r="F29" s="167"/>
+      <c r="G29" s="274"/>
+      <c r="H29" s="126"/>
+      <c r="I29" s="126"/>
+      <c r="J29" s="126"/>
+      <c r="K29" s="126"/>
+      <c r="L29" s="126"/>
+      <c r="M29" s="126"/>
+      <c r="N29" s="129"/>
+      <c r="O29" s="134"/>
+      <c r="P29" s="137"/>
+      <c r="Q29" s="139"/>
+      <c r="R29" s="141"/>
+      <c r="S29" s="102">
         <v>6</v>
       </c>
-      <c r="T24" s="263">
+      <c r="T29" s="103">
         <v>7</v>
       </c>
-      <c r="U24" s="262">
+      <c r="U29" s="102">
         <v>8</v>
       </c>
-      <c r="V24" s="264">
+      <c r="V29" s="104">
         <v>9</v>
       </c>
-      <c r="W24" s="265">
+      <c r="W29" s="105">
         <v>10</v>
       </c>
-      <c r="X24" s="261">
+      <c r="X29" s="61">
         <v>11</v>
       </c>
-      <c r="Y24" s="292"/>
-      <c r="Z24" s="293"/>
-      <c r="AA24" s="294"/>
-      <c r="AB24" s="82"/>
-      <c r="AC24" s="82"/>
-      <c r="AD24" s="82"/>
-      <c r="AE24" s="82"/>
-      <c r="AF24" s="82"/>
-      <c r="AG24" s="82"/>
-      <c r="AH24" s="82"/>
-      <c r="AI24" s="82"/>
-      <c r="AJ24" s="82"/>
-    </row>
-    <row r="25" spans="1:36" s="60" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="220"/>
-      <c r="B25" s="108"/>
-      <c r="C25" s="108"/>
-      <c r="D25" s="108"/>
-      <c r="E25" s="111"/>
-      <c r="F25" s="111"/>
-      <c r="G25" s="114"/>
-      <c r="H25" s="119"/>
-      <c r="I25" s="119"/>
-      <c r="J25" s="119"/>
-      <c r="K25" s="119"/>
-      <c r="L25" s="119"/>
-      <c r="M25" s="119"/>
-      <c r="N25" s="127"/>
-      <c r="O25" s="108"/>
-      <c r="P25" s="232"/>
-      <c r="Q25" s="235"/>
-      <c r="R25" s="237"/>
-      <c r="S25" s="266">
+      <c r="Y29" s="159"/>
+      <c r="Z29" s="160"/>
+      <c r="AA29" s="161"/>
+      <c r="AB29" s="74"/>
+      <c r="AC29" s="74"/>
+      <c r="AD29" s="74"/>
+      <c r="AE29" s="74"/>
+      <c r="AF29" s="74"/>
+      <c r="AG29" s="74"/>
+      <c r="AH29" s="74"/>
+      <c r="AI29" s="74"/>
+      <c r="AJ29" s="74"/>
+    </row>
+    <row r="30" spans="1:36" s="57" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="163"/>
+      <c r="B30" s="134"/>
+      <c r="C30" s="134"/>
+      <c r="D30" s="134"/>
+      <c r="E30" s="167"/>
+      <c r="F30" s="167"/>
+      <c r="G30" s="274"/>
+      <c r="H30" s="126"/>
+      <c r="I30" s="126"/>
+      <c r="J30" s="126"/>
+      <c r="K30" s="126"/>
+      <c r="L30" s="126"/>
+      <c r="M30" s="126"/>
+      <c r="N30" s="129"/>
+      <c r="O30" s="134"/>
+      <c r="P30" s="137"/>
+      <c r="Q30" s="139"/>
+      <c r="R30" s="141"/>
+      <c r="S30" s="106">
         <v>13</v>
       </c>
-      <c r="T25" s="267">
+      <c r="T30" s="107">
         <v>14</v>
       </c>
-      <c r="U25" s="266">
+      <c r="U30" s="106">
         <v>15</v>
       </c>
-      <c r="V25" s="255">
+      <c r="V30" s="95">
         <v>16</v>
       </c>
-      <c r="W25" s="268">
+      <c r="W30" s="108">
         <v>17</v>
       </c>
-      <c r="X25" s="269">
+      <c r="X30" s="60">
         <v>18</v>
       </c>
-      <c r="Y25" s="292"/>
-      <c r="Z25" s="293"/>
-      <c r="AA25" s="294"/>
-      <c r="AB25" s="82"/>
-      <c r="AC25" s="82"/>
-      <c r="AD25" s="82"/>
-      <c r="AE25" s="82"/>
-      <c r="AF25" s="82"/>
-      <c r="AG25" s="82"/>
-      <c r="AH25" s="82"/>
-      <c r="AI25" s="82"/>
-      <c r="AJ25" s="82"/>
-    </row>
-    <row r="26" spans="1:36" s="60" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="220"/>
-      <c r="B26" s="108"/>
-      <c r="C26" s="108"/>
-      <c r="D26" s="108"/>
-      <c r="E26" s="111"/>
-      <c r="F26" s="111"/>
-      <c r="G26" s="114"/>
-      <c r="H26" s="119"/>
-      <c r="I26" s="119"/>
-      <c r="J26" s="119"/>
-      <c r="K26" s="119"/>
-      <c r="L26" s="119"/>
-      <c r="M26" s="119"/>
-      <c r="N26" s="127"/>
-      <c r="O26" s="108"/>
-      <c r="P26" s="232"/>
-      <c r="Q26" s="235"/>
-      <c r="R26" s="237"/>
-      <c r="S26" s="270">
+      <c r="Y30" s="159"/>
+      <c r="Z30" s="160"/>
+      <c r="AA30" s="161"/>
+      <c r="AB30" s="74"/>
+      <c r="AC30" s="74"/>
+      <c r="AD30" s="74"/>
+      <c r="AE30" s="74"/>
+      <c r="AF30" s="74"/>
+      <c r="AG30" s="74"/>
+      <c r="AH30" s="74"/>
+      <c r="AI30" s="74"/>
+      <c r="AJ30" s="74"/>
+    </row>
+    <row r="31" spans="1:36" s="57" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="163"/>
+      <c r="B31" s="134"/>
+      <c r="C31" s="134"/>
+      <c r="D31" s="134"/>
+      <c r="E31" s="167"/>
+      <c r="F31" s="167"/>
+      <c r="G31" s="274"/>
+      <c r="H31" s="126"/>
+      <c r="I31" s="126"/>
+      <c r="J31" s="126"/>
+      <c r="K31" s="126"/>
+      <c r="L31" s="126"/>
+      <c r="M31" s="126"/>
+      <c r="N31" s="129"/>
+      <c r="O31" s="134"/>
+      <c r="P31" s="137"/>
+      <c r="Q31" s="139"/>
+      <c r="R31" s="141"/>
+      <c r="S31" s="110">
         <v>20</v>
       </c>
-      <c r="T26" s="267">
+      <c r="T31" s="107">
         <v>21</v>
       </c>
-      <c r="U26" s="270">
+      <c r="U31" s="110">
         <v>22</v>
       </c>
-      <c r="V26" s="256">
+      <c r="V31" s="96">
         <v>23</v>
       </c>
-      <c r="W26" s="271">
+      <c r="W31" s="111">
         <v>24</v>
       </c>
-      <c r="X26" s="269">
+      <c r="X31" s="60">
         <v>25</v>
       </c>
-      <c r="Y26" s="295"/>
-      <c r="Z26" s="296"/>
-      <c r="AA26" s="297"/>
-      <c r="AB26" s="82"/>
-      <c r="AC26" s="82"/>
-      <c r="AD26" s="82"/>
-      <c r="AE26" s="82"/>
-      <c r="AF26" s="82"/>
-      <c r="AG26" s="82"/>
-      <c r="AH26" s="82"/>
-      <c r="AI26" s="82"/>
-      <c r="AJ26" s="82"/>
-    </row>
-    <row r="27" spans="1:36" s="84" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="221"/>
-      <c r="B27" s="109"/>
-      <c r="C27" s="109"/>
-      <c r="D27" s="109"/>
-      <c r="E27" s="112"/>
-      <c r="F27" s="112"/>
-      <c r="G27" s="115"/>
-      <c r="H27" s="120"/>
-      <c r="I27" s="120"/>
-      <c r="J27" s="120"/>
-      <c r="K27" s="120"/>
-      <c r="L27" s="120"/>
-      <c r="M27" s="120"/>
-      <c r="N27" s="230"/>
-      <c r="O27" s="109"/>
-      <c r="P27" s="233"/>
-      <c r="Q27" s="235"/>
-      <c r="R27" s="238"/>
-      <c r="S27" s="272">
+      <c r="Y31" s="159"/>
+      <c r="Z31" s="160"/>
+      <c r="AA31" s="161"/>
+      <c r="AB31" s="74"/>
+      <c r="AC31" s="74"/>
+      <c r="AD31" s="74"/>
+      <c r="AE31" s="74"/>
+      <c r="AF31" s="74"/>
+      <c r="AG31" s="74"/>
+      <c r="AH31" s="74"/>
+      <c r="AI31" s="74"/>
+      <c r="AJ31" s="74"/>
+    </row>
+    <row r="32" spans="1:36" s="76" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="164"/>
+      <c r="B32" s="135"/>
+      <c r="C32" s="135"/>
+      <c r="D32" s="135"/>
+      <c r="E32" s="168"/>
+      <c r="F32" s="168"/>
+      <c r="G32" s="275"/>
+      <c r="H32" s="127"/>
+      <c r="I32" s="127"/>
+      <c r="J32" s="127"/>
+      <c r="K32" s="127"/>
+      <c r="L32" s="127"/>
+      <c r="M32" s="127"/>
+      <c r="N32" s="130"/>
+      <c r="O32" s="135"/>
+      <c r="P32" s="138"/>
+      <c r="Q32" s="280"/>
+      <c r="R32" s="142"/>
+      <c r="S32" s="112">
         <v>27</v>
       </c>
-      <c r="T27" s="273">
+      <c r="T32" s="113">
         <v>28</v>
       </c>
-      <c r="U27" s="29"/>
-      <c r="V27" s="30"/>
-      <c r="W27" s="29"/>
-      <c r="X27" s="65"/>
-      <c r="Y27" s="90"/>
-      <c r="Z27" s="90"/>
-      <c r="AA27" s="90"/>
-      <c r="AB27" s="83"/>
-      <c r="AC27" s="83"/>
-      <c r="AD27" s="83"/>
-      <c r="AE27" s="83"/>
-      <c r="AF27" s="83"/>
-      <c r="AG27" s="83"/>
-      <c r="AH27" s="83"/>
-      <c r="AI27" s="83"/>
-      <c r="AJ27" s="83"/>
-    </row>
-    <row r="28" spans="1:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="219"/>
-      <c r="B28" s="107"/>
-      <c r="C28" s="107"/>
-      <c r="D28" s="107"/>
-      <c r="E28" s="110"/>
-      <c r="F28" s="110"/>
-      <c r="G28" s="225"/>
-      <c r="H28" s="116"/>
-      <c r="I28" s="118"/>
-      <c r="J28" s="116"/>
-      <c r="K28" s="116"/>
-      <c r="L28" s="116"/>
-      <c r="M28" s="116"/>
-      <c r="N28" s="229"/>
-      <c r="O28" s="224"/>
-      <c r="P28" s="231"/>
-      <c r="Q28" s="234"/>
-      <c r="R28" s="236"/>
-      <c r="S28" s="76"/>
-      <c r="T28" s="76"/>
-      <c r="U28" s="77"/>
-      <c r="V28" s="76"/>
-      <c r="W28" s="76"/>
-      <c r="X28" s="64"/>
-      <c r="Y28" s="89"/>
-      <c r="Z28" s="88"/>
-      <c r="AA28" s="88"/>
-      <c r="AB28" s="3"/>
-      <c r="AC28" s="3"/>
-      <c r="AD28" s="3"/>
-      <c r="AE28" s="3"/>
-      <c r="AF28" s="3"/>
-      <c r="AG28" s="3"/>
-      <c r="AH28" s="3"/>
-      <c r="AI28" s="3"/>
-      <c r="AJ28" s="3"/>
-    </row>
-    <row r="29" spans="1:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="220"/>
-      <c r="B29" s="108"/>
-      <c r="C29" s="108"/>
-      <c r="D29" s="108"/>
-      <c r="E29" s="111"/>
-      <c r="F29" s="111"/>
-      <c r="G29" s="124"/>
-      <c r="H29" s="117"/>
-      <c r="I29" s="119"/>
-      <c r="J29" s="117"/>
-      <c r="K29" s="117"/>
-      <c r="L29" s="117"/>
-      <c r="M29" s="117"/>
-      <c r="N29" s="127"/>
-      <c r="O29" s="108"/>
-      <c r="P29" s="232"/>
-      <c r="Q29" s="235"/>
-      <c r="R29" s="237"/>
-      <c r="S29" s="52"/>
-      <c r="T29" s="252"/>
-      <c r="U29" s="52"/>
-      <c r="V29" s="53"/>
-      <c r="W29" s="54"/>
-      <c r="X29" s="64"/>
-      <c r="Y29" s="88"/>
-      <c r="Z29" s="88"/>
-      <c r="AA29" s="88"/>
-      <c r="AB29" s="3"/>
-      <c r="AC29" s="3"/>
-      <c r="AD29" s="3"/>
-      <c r="AE29" s="3"/>
-      <c r="AF29" s="3"/>
-      <c r="AG29" s="3"/>
-      <c r="AH29" s="3"/>
-      <c r="AI29" s="3"/>
-      <c r="AJ29" s="3"/>
-    </row>
-    <row r="30" spans="1:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="220"/>
-      <c r="B30" s="108"/>
-      <c r="C30" s="108"/>
-      <c r="D30" s="108"/>
-      <c r="E30" s="111"/>
-      <c r="F30" s="111"/>
-      <c r="G30" s="124"/>
-      <c r="H30" s="117"/>
-      <c r="I30" s="119"/>
-      <c r="J30" s="117"/>
-      <c r="K30" s="117"/>
-      <c r="L30" s="117"/>
-      <c r="M30" s="117"/>
-      <c r="N30" s="127"/>
-      <c r="O30" s="108"/>
-      <c r="P30" s="232"/>
-      <c r="Q30" s="235"/>
-      <c r="R30" s="237"/>
-      <c r="S30" s="41"/>
-      <c r="T30" s="59"/>
-      <c r="U30" s="41"/>
-      <c r="V30" s="42"/>
-      <c r="W30" s="48"/>
-      <c r="X30" s="63"/>
-      <c r="Y30" s="88"/>
-      <c r="Z30" s="88"/>
-      <c r="AA30" s="88"/>
-      <c r="AB30" s="3"/>
-      <c r="AC30" s="3"/>
-      <c r="AD30" s="3"/>
-      <c r="AE30" s="3"/>
-      <c r="AF30" s="3"/>
-      <c r="AG30" s="3"/>
-      <c r="AH30" s="3"/>
-      <c r="AI30" s="3"/>
-      <c r="AJ30" s="3"/>
-    </row>
-    <row r="31" spans="1:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="220"/>
-      <c r="B31" s="108"/>
-      <c r="C31" s="108"/>
-      <c r="D31" s="108"/>
-      <c r="E31" s="111"/>
-      <c r="F31" s="111"/>
-      <c r="G31" s="124"/>
-      <c r="H31" s="117"/>
-      <c r="I31" s="119"/>
-      <c r="J31" s="117"/>
-      <c r="K31" s="117"/>
-      <c r="L31" s="117"/>
-      <c r="M31" s="117"/>
-      <c r="N31" s="127"/>
-      <c r="O31" s="108"/>
-      <c r="P31" s="232"/>
-      <c r="Q31" s="235"/>
-      <c r="R31" s="237"/>
-      <c r="S31" s="27"/>
-      <c r="T31" s="59"/>
-      <c r="U31" s="27"/>
-      <c r="V31" s="28"/>
-      <c r="W31" s="49"/>
-      <c r="X31" s="63"/>
-      <c r="Y31" s="88"/>
-      <c r="Z31" s="92"/>
-      <c r="AA31" s="99"/>
-      <c r="AB31" s="3"/>
-      <c r="AC31" s="3"/>
-      <c r="AD31" s="3"/>
-      <c r="AE31" s="3"/>
-      <c r="AF31" s="3"/>
-      <c r="AG31" s="3"/>
-      <c r="AH31" s="3"/>
-      <c r="AI31" s="3"/>
-      <c r="AJ31" s="3"/>
-    </row>
-    <row r="32" spans="1:36" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="221"/>
-      <c r="B32" s="109"/>
-      <c r="C32" s="109"/>
-      <c r="D32" s="109"/>
-      <c r="E32" s="112"/>
-      <c r="F32" s="112"/>
-      <c r="G32" s="226"/>
-      <c r="H32" s="117"/>
-      <c r="I32" s="120"/>
-      <c r="J32" s="117"/>
-      <c r="K32" s="117"/>
-      <c r="L32" s="117"/>
-      <c r="M32" s="117"/>
-      <c r="N32" s="230"/>
-      <c r="O32" s="109"/>
-      <c r="P32" s="233"/>
-      <c r="Q32" s="235"/>
-      <c r="R32" s="238"/>
-      <c r="S32" s="29"/>
-      <c r="T32" s="253"/>
       <c r="U32" s="29"/>
       <c r="V32" s="30"/>
       <c r="W32" s="29"/>
-      <c r="X32" s="65"/>
-      <c r="Y32" s="72"/>
-      <c r="Z32" s="88"/>
-      <c r="AA32" s="79"/>
-      <c r="AB32" s="3"/>
-      <c r="AC32" s="3"/>
-      <c r="AD32" s="3"/>
-      <c r="AE32" s="3"/>
-      <c r="AF32" s="3"/>
-      <c r="AG32" s="3"/>
-      <c r="AH32" s="3"/>
-      <c r="AI32" s="3"/>
-      <c r="AJ32" s="3"/>
-    </row>
-    <row r="33" spans="1:36" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="7"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="198"/>
-      <c r="I33" s="197"/>
-      <c r="J33" s="197"/>
-      <c r="K33" s="197"/>
-      <c r="L33" s="197"/>
-      <c r="M33" s="197"/>
-      <c r="N33" s="197"/>
-      <c r="O33" s="199"/>
-      <c r="P33" s="26"/>
-      <c r="Q33" s="55">
-        <f>SUM(Q13:Q32)</f>
-        <v>108</v>
-      </c>
-      <c r="R33" s="196"/>
-      <c r="S33" s="197"/>
-      <c r="T33" s="197"/>
-      <c r="U33" s="197"/>
-      <c r="V33" s="197"/>
-      <c r="W33" s="197"/>
-      <c r="X33" s="56"/>
-      <c r="Z33" s="90"/>
-      <c r="AA33" s="5"/>
-      <c r="AB33" s="6"/>
-      <c r="AC33" s="6"/>
-      <c r="AD33" s="6"/>
-      <c r="AE33" s="6"/>
-      <c r="AF33" s="6"/>
-      <c r="AG33" s="6"/>
-      <c r="AH33" s="6"/>
-      <c r="AI33" s="6"/>
-      <c r="AJ33" s="6"/>
-    </row>
-    <row r="34" spans="1:36" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="130" t="s">
+      <c r="X32" s="62"/>
+      <c r="Y32" s="80"/>
+      <c r="Z32" s="80"/>
+      <c r="AA32" s="80"/>
+      <c r="AB32" s="75"/>
+      <c r="AC32" s="75"/>
+      <c r="AD32" s="75"/>
+      <c r="AE32" s="75"/>
+      <c r="AF32" s="75"/>
+      <c r="AG32" s="75"/>
+      <c r="AH32" s="75"/>
+      <c r="AI32" s="75"/>
+      <c r="AJ32" s="75"/>
+    </row>
+    <row r="33" spans="1:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="162">
+        <v>1261227</v>
+      </c>
+      <c r="B33" s="165" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33" s="165" t="s">
+        <v>64</v>
+      </c>
+      <c r="D33" s="165">
+        <v>60</v>
+      </c>
+      <c r="E33" s="166" t="s">
+        <v>51</v>
+      </c>
+      <c r="F33" s="166" t="s">
+        <v>52</v>
+      </c>
+      <c r="G33" s="169">
+        <v>18</v>
+      </c>
+      <c r="H33" s="117"/>
+      <c r="I33" s="125"/>
+      <c r="J33" s="117"/>
+      <c r="K33" s="117"/>
+      <c r="L33" s="117"/>
+      <c r="M33" s="125" t="s">
+        <v>67</v>
+      </c>
+      <c r="N33" s="128"/>
+      <c r="O33" s="133"/>
+      <c r="P33" s="136"/>
+      <c r="Q33" s="281">
+        <v>24</v>
+      </c>
+      <c r="R33" s="140"/>
+      <c r="S33" s="70"/>
+      <c r="T33" s="70"/>
+      <c r="U33" s="70">
+        <v>1</v>
+      </c>
+      <c r="V33" s="70">
+        <v>2</v>
+      </c>
+      <c r="W33" s="70">
+        <v>3</v>
+      </c>
+      <c r="X33" s="101">
+        <v>4</v>
+      </c>
+      <c r="Y33" s="342" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z33" s="342" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA33" s="342" t="s">
+        <v>90</v>
+      </c>
+      <c r="AB33" s="3"/>
+      <c r="AC33" s="3"/>
+      <c r="AD33" s="3"/>
+      <c r="AE33" s="3"/>
+      <c r="AF33" s="3"/>
+      <c r="AG33" s="3"/>
+      <c r="AH33" s="3"/>
+      <c r="AI33" s="3"/>
+      <c r="AJ33" s="3"/>
+    </row>
+    <row r="34" spans="1:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="163"/>
+      <c r="B34" s="134"/>
+      <c r="C34" s="134"/>
+      <c r="D34" s="134"/>
+      <c r="E34" s="167"/>
+      <c r="F34" s="167"/>
+      <c r="G34" s="170"/>
+      <c r="H34" s="118"/>
+      <c r="I34" s="126"/>
+      <c r="J34" s="118"/>
+      <c r="K34" s="118"/>
+      <c r="L34" s="118"/>
+      <c r="M34" s="126"/>
+      <c r="N34" s="129"/>
+      <c r="O34" s="134"/>
+      <c r="P34" s="137"/>
+      <c r="Q34" s="282"/>
+      <c r="R34" s="141"/>
+      <c r="S34" s="276">
+        <v>6</v>
+      </c>
+      <c r="T34" s="92">
+        <v>7</v>
+      </c>
+      <c r="U34" s="276">
+        <v>8</v>
+      </c>
+      <c r="V34" s="92">
+        <v>9</v>
+      </c>
+      <c r="W34" s="277">
+        <v>10</v>
+      </c>
+      <c r="X34" s="101">
+        <v>11</v>
+      </c>
+      <c r="Y34" s="342" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z34" s="342" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA34" s="342" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB34" s="3"/>
+      <c r="AC34" s="3"/>
+      <c r="AD34" s="3"/>
+      <c r="AE34" s="3"/>
+      <c r="AF34" s="3"/>
+      <c r="AG34" s="3"/>
+      <c r="AH34" s="3"/>
+      <c r="AI34" s="3"/>
+      <c r="AJ34" s="3"/>
+    </row>
+    <row r="35" spans="1:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="163"/>
+      <c r="B35" s="134"/>
+      <c r="C35" s="134"/>
+      <c r="D35" s="134"/>
+      <c r="E35" s="167"/>
+      <c r="F35" s="167"/>
+      <c r="G35" s="170"/>
+      <c r="H35" s="118"/>
+      <c r="I35" s="126"/>
+      <c r="J35" s="118"/>
+      <c r="K35" s="118"/>
+      <c r="L35" s="118"/>
+      <c r="M35" s="126"/>
+      <c r="N35" s="129"/>
+      <c r="O35" s="134"/>
+      <c r="P35" s="137"/>
+      <c r="Q35" s="282"/>
+      <c r="R35" s="141"/>
+      <c r="S35" s="55">
+        <v>13</v>
+      </c>
+      <c r="T35" s="56">
+        <v>14</v>
+      </c>
+      <c r="U35" s="55">
+        <v>15</v>
+      </c>
+      <c r="V35" s="56">
+        <v>16</v>
+      </c>
+      <c r="W35" s="278">
+        <v>17</v>
+      </c>
+      <c r="X35" s="109">
+        <v>18</v>
+      </c>
+      <c r="Y35" s="342" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z35" s="342" t="s">
+        <v>93</v>
+      </c>
+      <c r="AA35" s="342" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB35" s="3"/>
+      <c r="AC35" s="3"/>
+      <c r="AD35" s="3"/>
+      <c r="AE35" s="3"/>
+      <c r="AF35" s="3"/>
+      <c r="AG35" s="3"/>
+      <c r="AH35" s="3"/>
+      <c r="AI35" s="3"/>
+      <c r="AJ35" s="3"/>
+    </row>
+    <row r="36" spans="1:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="163"/>
+      <c r="B36" s="134"/>
+      <c r="C36" s="134"/>
+      <c r="D36" s="134"/>
+      <c r="E36" s="167"/>
+      <c r="F36" s="167"/>
+      <c r="G36" s="170"/>
+      <c r="H36" s="118"/>
+      <c r="I36" s="126"/>
+      <c r="J36" s="118"/>
+      <c r="K36" s="118"/>
+      <c r="L36" s="118"/>
+      <c r="M36" s="126"/>
+      <c r="N36" s="129"/>
+      <c r="O36" s="134"/>
+      <c r="P36" s="137"/>
+      <c r="Q36" s="282"/>
+      <c r="R36" s="141"/>
+      <c r="S36" s="55">
+        <v>20</v>
+      </c>
+      <c r="T36" s="56">
+        <v>21</v>
+      </c>
+      <c r="U36" s="55">
+        <v>22</v>
+      </c>
+      <c r="V36" s="56">
+        <v>23</v>
+      </c>
+      <c r="W36" s="278">
+        <v>24</v>
+      </c>
+      <c r="X36" s="109">
+        <v>25</v>
+      </c>
+      <c r="Y36" s="342" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z36" s="342" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA36" s="69"/>
+      <c r="AB36" s="3"/>
+      <c r="AC36" s="3"/>
+      <c r="AD36" s="3"/>
+      <c r="AE36" s="3"/>
+      <c r="AF36" s="3"/>
+      <c r="AG36" s="3"/>
+      <c r="AH36" s="3"/>
+      <c r="AI36" s="3"/>
+      <c r="AJ36" s="3"/>
+    </row>
+    <row r="37" spans="1:36" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="164"/>
+      <c r="B37" s="135"/>
+      <c r="C37" s="135"/>
+      <c r="D37" s="135"/>
+      <c r="E37" s="168"/>
+      <c r="F37" s="168"/>
+      <c r="G37" s="171"/>
+      <c r="H37" s="118"/>
+      <c r="I37" s="127"/>
+      <c r="J37" s="118"/>
+      <c r="K37" s="118"/>
+      <c r="L37" s="118"/>
+      <c r="M37" s="127"/>
+      <c r="N37" s="130"/>
+      <c r="O37" s="135"/>
+      <c r="P37" s="138"/>
+      <c r="Q37" s="283"/>
+      <c r="R37" s="142"/>
+      <c r="S37" s="279">
+        <v>27</v>
+      </c>
+      <c r="T37" s="93">
+        <v>28</v>
+      </c>
+      <c r="U37" s="279"/>
+      <c r="V37" s="93"/>
+      <c r="W37" s="279"/>
+      <c r="X37" s="62"/>
+      <c r="Y37" s="69"/>
+      <c r="Z37" s="80"/>
+      <c r="AA37" s="69"/>
+      <c r="AB37" s="3"/>
+      <c r="AC37" s="3"/>
+      <c r="AD37" s="3"/>
+      <c r="AE37" s="3"/>
+      <c r="AF37" s="3"/>
+      <c r="AG37" s="3"/>
+      <c r="AH37" s="3"/>
+      <c r="AI37" s="3"/>
+      <c r="AJ37" s="3"/>
+    </row>
+    <row r="38" spans="1:36" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="7"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="176"/>
+      <c r="I38" s="175"/>
+      <c r="J38" s="175"/>
+      <c r="K38" s="175"/>
+      <c r="L38" s="175"/>
+      <c r="M38" s="175"/>
+      <c r="N38" s="175"/>
+      <c r="O38" s="177"/>
+      <c r="P38" s="26"/>
+      <c r="Q38" s="52">
+        <f>SUM(Q13:Q37)</f>
+        <v>118</v>
+      </c>
+      <c r="R38" s="174"/>
+      <c r="S38" s="175"/>
+      <c r="T38" s="175"/>
+      <c r="U38" s="175"/>
+      <c r="V38" s="175"/>
+      <c r="W38" s="175"/>
+      <c r="X38" s="53"/>
+      <c r="Z38" s="81"/>
+      <c r="AA38" s="5"/>
+      <c r="AB38" s="6"/>
+      <c r="AC38" s="6"/>
+      <c r="AD38" s="6"/>
+      <c r="AE38" s="6"/>
+      <c r="AF38" s="6"/>
+      <c r="AG38" s="6"/>
+      <c r="AH38" s="6"/>
+      <c r="AI38" s="6"/>
+      <c r="AJ38" s="6"/>
+    </row>
+    <row r="39" spans="1:36" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="254" t="s">
         <v>19</v>
       </c>
-      <c r="B34" s="131"/>
-      <c r="C34" s="131"/>
-      <c r="D34" s="131"/>
-      <c r="E34" s="131"/>
-      <c r="F34" s="131"/>
-      <c r="G34" s="131"/>
-      <c r="H34" s="131"/>
-      <c r="I34" s="131"/>
-      <c r="J34" s="131"/>
-      <c r="K34" s="131"/>
-      <c r="L34" s="131"/>
-      <c r="M34" s="131"/>
-      <c r="N34" s="131"/>
-      <c r="O34" s="131"/>
-      <c r="P34" s="131"/>
-      <c r="Q34" s="132"/>
-      <c r="R34" s="131"/>
-      <c r="S34" s="131"/>
-      <c r="T34" s="131"/>
-      <c r="U34" s="131"/>
-      <c r="V34" s="131"/>
-      <c r="W34" s="131"/>
-      <c r="X34" s="66"/>
-      <c r="Z34" s="88"/>
-      <c r="AA34" s="5"/>
-      <c r="AB34" s="6"/>
-      <c r="AC34" s="6"/>
-      <c r="AD34" s="6"/>
-      <c r="AE34" s="6"/>
-      <c r="AF34" s="6"/>
-      <c r="AG34" s="6"/>
-      <c r="AH34" s="6"/>
-      <c r="AI34" s="6"/>
-      <c r="AJ34" s="6"/>
-    </row>
-    <row r="35" spans="1:36" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="183" t="s">
+      <c r="B39" s="255"/>
+      <c r="C39" s="255"/>
+      <c r="D39" s="255"/>
+      <c r="E39" s="255"/>
+      <c r="F39" s="255"/>
+      <c r="G39" s="255"/>
+      <c r="H39" s="255"/>
+      <c r="I39" s="255"/>
+      <c r="J39" s="255"/>
+      <c r="K39" s="255"/>
+      <c r="L39" s="255"/>
+      <c r="M39" s="255"/>
+      <c r="N39" s="255"/>
+      <c r="O39" s="255"/>
+      <c r="P39" s="255"/>
+      <c r="Q39" s="256"/>
+      <c r="R39" s="255"/>
+      <c r="S39" s="255"/>
+      <c r="T39" s="255"/>
+      <c r="U39" s="255"/>
+      <c r="V39" s="255"/>
+      <c r="W39" s="255"/>
+      <c r="X39" s="63"/>
+      <c r="Z39" s="80"/>
+      <c r="AA39" s="5"/>
+      <c r="AB39" s="6"/>
+      <c r="AC39" s="6"/>
+      <c r="AD39" s="6"/>
+      <c r="AE39" s="6"/>
+      <c r="AF39" s="6"/>
+      <c r="AG39" s="6"/>
+      <c r="AH39" s="6"/>
+      <c r="AI39" s="6"/>
+      <c r="AJ39" s="6"/>
+    </row>
+    <row r="40" spans="1:36" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="222" t="s">
         <v>20</v>
       </c>
-      <c r="B35" s="184"/>
-      <c r="C35" s="184"/>
-      <c r="D35" s="154"/>
-      <c r="E35" s="121" t="s">
+      <c r="B40" s="223"/>
+      <c r="C40" s="223"/>
+      <c r="D40" s="224"/>
+      <c r="E40" s="206" t="s">
         <v>21</v>
       </c>
-      <c r="F35" s="154"/>
-      <c r="G35" s="157" t="s">
+      <c r="F40" s="224"/>
+      <c r="G40" s="200" t="s">
         <v>22</v>
       </c>
-      <c r="H35" s="121" t="s">
+      <c r="H40" s="206" t="s">
         <v>6</v>
       </c>
-      <c r="I35" s="122"/>
-      <c r="J35" s="122"/>
-      <c r="K35" s="122"/>
-      <c r="L35" s="122"/>
-      <c r="M35" s="122"/>
-      <c r="N35" s="17"/>
-      <c r="O35" s="149" t="s">
+      <c r="I40" s="207"/>
+      <c r="J40" s="207"/>
+      <c r="K40" s="207"/>
+      <c r="L40" s="207"/>
+      <c r="M40" s="207"/>
+      <c r="N40" s="17"/>
+      <c r="O40" s="180" t="s">
         <v>43</v>
       </c>
-      <c r="P35" s="151" t="s">
+      <c r="P40" s="178" t="s">
         <v>23</v>
       </c>
-      <c r="Q35" s="151" t="s">
+      <c r="Q40" s="178" t="s">
         <v>24</v>
       </c>
-      <c r="R35" s="157" t="s">
+      <c r="R40" s="200" t="s">
         <v>25</v>
       </c>
-      <c r="S35" s="121" t="s">
+      <c r="S40" s="206" t="s">
         <v>26</v>
       </c>
-      <c r="T35" s="122"/>
-      <c r="U35" s="122"/>
-      <c r="V35" s="122"/>
-      <c r="W35" s="122"/>
-      <c r="X35" s="122"/>
-      <c r="Z35" s="88"/>
-      <c r="AA35" s="1"/>
-      <c r="AB35" s="1"/>
-      <c r="AC35" s="1"/>
-      <c r="AD35" s="1"/>
-      <c r="AE35" s="1"/>
-      <c r="AF35" s="1"/>
-      <c r="AG35" s="1"/>
-      <c r="AH35" s="1"/>
-      <c r="AI35" s="1"/>
-      <c r="AJ35" s="1"/>
-    </row>
-    <row r="36" spans="1:36" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="185"/>
-      <c r="B36" s="186"/>
-      <c r="C36" s="186"/>
-      <c r="D36" s="156"/>
-      <c r="E36" s="155"/>
-      <c r="F36" s="156"/>
-      <c r="G36" s="150"/>
-      <c r="H36" s="34" t="s">
+      <c r="T40" s="207"/>
+      <c r="U40" s="207"/>
+      <c r="V40" s="207"/>
+      <c r="W40" s="207"/>
+      <c r="X40" s="207"/>
+      <c r="Z40" s="80"/>
+      <c r="AA40" s="1"/>
+      <c r="AB40" s="1"/>
+      <c r="AC40" s="1"/>
+      <c r="AD40" s="1"/>
+      <c r="AE40" s="1"/>
+      <c r="AF40" s="1"/>
+      <c r="AG40" s="1"/>
+      <c r="AH40" s="1"/>
+      <c r="AI40" s="1"/>
+      <c r="AJ40" s="1"/>
+    </row>
+    <row r="41" spans="1:36" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="225"/>
+      <c r="B41" s="226"/>
+      <c r="C41" s="226"/>
+      <c r="D41" s="227"/>
+      <c r="E41" s="244"/>
+      <c r="F41" s="227"/>
+      <c r="G41" s="245"/>
+      <c r="H41" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="I36" s="34" t="s">
+      <c r="I41" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="J36" s="34" t="s">
+      <c r="J41" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="K36" s="34" t="s">
+      <c r="K41" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="L36" s="34" t="s">
+      <c r="L41" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="M36" s="33" t="s">
+      <c r="M41" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="N36" s="33" t="s">
+      <c r="N41" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="O36" s="150"/>
-      <c r="P36" s="152"/>
-      <c r="Q36" s="153"/>
-      <c r="R36" s="150"/>
-      <c r="S36" s="34" t="s">
+      <c r="O41" s="245"/>
+      <c r="P41" s="266"/>
+      <c r="Q41" s="267"/>
+      <c r="R41" s="245"/>
+      <c r="S41" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="T36" s="34" t="s">
+      <c r="T41" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="U36" s="34" t="s">
+      <c r="U41" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="V36" s="34" t="s">
+      <c r="V41" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="W36" s="34" t="s">
+      <c r="W41" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="X36" s="33" t="s">
+      <c r="X41" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="Y36" s="87"/>
-      <c r="Z36" s="88"/>
-      <c r="AA36" s="1"/>
-      <c r="AB36" s="1"/>
-      <c r="AC36" s="1"/>
-      <c r="AD36" s="1"/>
-      <c r="AE36" s="1"/>
-      <c r="AF36" s="1"/>
-      <c r="AG36" s="1"/>
-      <c r="AH36" s="1"/>
-      <c r="AI36" s="1"/>
-      <c r="AJ36" s="1"/>
-    </row>
-    <row r="37" spans="1:36" s="37" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="173"/>
-      <c r="B37" s="174"/>
-      <c r="C37" s="174"/>
-      <c r="D37" s="175"/>
-      <c r="E37" s="173"/>
-      <c r="F37" s="174"/>
-      <c r="G37" s="133"/>
-      <c r="H37" s="148"/>
-      <c r="I37" s="148"/>
-      <c r="J37" s="148"/>
-      <c r="K37" s="148"/>
-      <c r="L37" s="148"/>
-      <c r="M37" s="148"/>
-      <c r="N37" s="148"/>
-      <c r="O37" s="145"/>
-      <c r="P37" s="158"/>
-      <c r="Q37" s="158"/>
-      <c r="R37" s="161"/>
-      <c r="S37" s="43">
-        <v>2</v>
-      </c>
-      <c r="T37" s="44">
-        <v>3</v>
-      </c>
-      <c r="U37" s="44">
-        <v>4</v>
-      </c>
-      <c r="V37" s="44">
-        <v>5</v>
-      </c>
-      <c r="W37" s="44">
-        <v>6</v>
-      </c>
-      <c r="X37" s="47">
-        <v>7</v>
-      </c>
-      <c r="Y37" s="91"/>
-      <c r="Z37" s="88"/>
-      <c r="AA37" s="38"/>
-      <c r="AB37" s="39"/>
-      <c r="AC37" s="39"/>
-      <c r="AD37" s="39"/>
-      <c r="AE37" s="39"/>
-      <c r="AF37" s="39"/>
-      <c r="AG37" s="39"/>
-      <c r="AH37" s="39"/>
-      <c r="AI37" s="39"/>
-      <c r="AJ37" s="39"/>
-    </row>
-    <row r="38" spans="1:36" s="37" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="176"/>
-      <c r="B38" s="177"/>
-      <c r="C38" s="177"/>
-      <c r="D38" s="178"/>
-      <c r="E38" s="176"/>
-      <c r="F38" s="179"/>
-      <c r="G38" s="134"/>
-      <c r="H38" s="146"/>
-      <c r="I38" s="146"/>
-      <c r="J38" s="146"/>
-      <c r="K38" s="146"/>
-      <c r="L38" s="146"/>
-      <c r="M38" s="146"/>
-      <c r="N38" s="146"/>
-      <c r="O38" s="146"/>
-      <c r="P38" s="164"/>
-      <c r="Q38" s="159"/>
-      <c r="R38" s="162"/>
-      <c r="S38" s="58">
-        <v>9</v>
-      </c>
-      <c r="T38" s="59">
-        <v>10</v>
-      </c>
-      <c r="U38" s="59">
-        <v>11</v>
-      </c>
-      <c r="V38" s="59">
-        <v>12</v>
-      </c>
-      <c r="W38" s="59">
-        <v>13</v>
-      </c>
-      <c r="X38" s="67">
-        <v>14</v>
-      </c>
-      <c r="Y38" s="91"/>
-      <c r="Z38" s="92"/>
-      <c r="AA38" s="38"/>
-      <c r="AB38" s="39"/>
-      <c r="AC38" s="39"/>
-      <c r="AD38" s="39"/>
-      <c r="AE38" s="39"/>
-      <c r="AF38" s="39"/>
-      <c r="AG38" s="39"/>
-      <c r="AH38" s="39"/>
-      <c r="AI38" s="39"/>
-      <c r="AJ38" s="39"/>
-    </row>
-    <row r="39" spans="1:36" s="37" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="176"/>
-      <c r="B39" s="177"/>
-      <c r="C39" s="177"/>
-      <c r="D39" s="178"/>
-      <c r="E39" s="176"/>
-      <c r="F39" s="179"/>
-      <c r="G39" s="134"/>
-      <c r="H39" s="146"/>
-      <c r="I39" s="146"/>
-      <c r="J39" s="146"/>
-      <c r="K39" s="146"/>
-      <c r="L39" s="146"/>
-      <c r="M39" s="146"/>
-      <c r="N39" s="146"/>
-      <c r="O39" s="146"/>
-      <c r="P39" s="164"/>
-      <c r="Q39" s="159"/>
-      <c r="R39" s="162"/>
-      <c r="S39" s="58">
-        <v>16</v>
-      </c>
-      <c r="T39" s="59">
-        <v>17</v>
-      </c>
-      <c r="U39" s="59">
-        <v>18</v>
-      </c>
-      <c r="V39" s="59">
-        <v>19</v>
-      </c>
-      <c r="W39" s="59">
-        <v>20</v>
-      </c>
-      <c r="X39" s="67">
-        <v>21</v>
-      </c>
-      <c r="Y39" s="91"/>
-      <c r="Z39" s="88"/>
-      <c r="AA39" s="38"/>
-      <c r="AB39" s="39"/>
-      <c r="AC39" s="39"/>
-      <c r="AD39" s="39"/>
-      <c r="AE39" s="39"/>
-      <c r="AF39" s="39"/>
-      <c r="AG39" s="39"/>
-      <c r="AH39" s="39"/>
-      <c r="AI39" s="39"/>
-      <c r="AJ39" s="39"/>
-    </row>
-    <row r="40" spans="1:36" s="37" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="176"/>
-      <c r="B40" s="177"/>
-      <c r="C40" s="177"/>
-      <c r="D40" s="178"/>
-      <c r="E40" s="176"/>
-      <c r="F40" s="179"/>
-      <c r="G40" s="134"/>
-      <c r="H40" s="146"/>
-      <c r="I40" s="146"/>
-      <c r="J40" s="146"/>
-      <c r="K40" s="146"/>
-      <c r="L40" s="146"/>
-      <c r="M40" s="146"/>
-      <c r="N40" s="146"/>
-      <c r="O40" s="146"/>
-      <c r="P40" s="164"/>
-      <c r="Q40" s="159"/>
-      <c r="R40" s="162"/>
-      <c r="S40" s="58">
-        <v>23</v>
-      </c>
-      <c r="T40" s="59">
-        <v>24</v>
-      </c>
-      <c r="U40" s="59">
-        <v>25</v>
-      </c>
-      <c r="V40" s="59">
-        <v>26</v>
-      </c>
-      <c r="W40" s="59">
-        <v>27</v>
-      </c>
-      <c r="X40" s="67">
-        <v>29</v>
-      </c>
-      <c r="Y40" s="91"/>
-      <c r="Z40" s="88"/>
-      <c r="AA40" s="38"/>
-      <c r="AB40" s="39"/>
-      <c r="AC40" s="39"/>
-      <c r="AD40" s="39"/>
-      <c r="AE40" s="39"/>
-      <c r="AF40" s="39"/>
-      <c r="AG40" s="39"/>
-      <c r="AH40" s="39"/>
-      <c r="AI40" s="39"/>
-      <c r="AJ40" s="39"/>
-    </row>
-    <row r="41" spans="1:36" s="37" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="176"/>
-      <c r="B41" s="179"/>
-      <c r="C41" s="179"/>
-      <c r="D41" s="178"/>
-      <c r="E41" s="176"/>
-      <c r="F41" s="179"/>
-      <c r="G41" s="135"/>
-      <c r="H41" s="147"/>
-      <c r="I41" s="147"/>
-      <c r="J41" s="147"/>
-      <c r="K41" s="147"/>
-      <c r="L41" s="147"/>
-      <c r="M41" s="147"/>
-      <c r="N41" s="147"/>
-      <c r="O41" s="147"/>
-      <c r="P41" s="165"/>
-      <c r="Q41" s="160"/>
-      <c r="R41" s="163"/>
-      <c r="S41" s="29">
-        <v>30</v>
-      </c>
-      <c r="T41" s="30">
-        <v>31</v>
-      </c>
-      <c r="U41" s="31"/>
-      <c r="V41" s="31"/>
-      <c r="W41" s="31"/>
-      <c r="X41" s="68"/>
-      <c r="Y41" s="91"/>
-      <c r="Z41" s="88"/>
-      <c r="AA41" s="38"/>
-      <c r="AB41" s="39"/>
-      <c r="AC41" s="39"/>
-      <c r="AD41" s="39"/>
-      <c r="AE41" s="39"/>
-      <c r="AF41" s="39"/>
-      <c r="AG41" s="39"/>
-      <c r="AH41" s="39"/>
-      <c r="AI41" s="39"/>
-      <c r="AJ41" s="39"/>
+      <c r="Y41" s="79"/>
+      <c r="Z41" s="80"/>
+      <c r="AA41" s="1"/>
+      <c r="AB41" s="1"/>
+      <c r="AC41" s="1"/>
+      <c r="AD41" s="1"/>
+      <c r="AE41" s="1"/>
+      <c r="AF41" s="1"/>
+      <c r="AG41" s="1"/>
+      <c r="AH41" s="1"/>
+      <c r="AI41" s="1"/>
+      <c r="AJ41" s="1"/>
     </row>
     <row r="42" spans="1:36" s="37" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="180"/>
-      <c r="B42" s="181"/>
-      <c r="C42" s="181"/>
-      <c r="D42" s="181"/>
-      <c r="E42" s="180"/>
-      <c r="F42" s="195"/>
-      <c r="G42" s="133"/>
-      <c r="H42" s="166"/>
-      <c r="I42" s="148"/>
-      <c r="J42" s="148"/>
-      <c r="K42" s="148"/>
-      <c r="L42" s="148"/>
-      <c r="M42" s="148"/>
-      <c r="N42" s="148"/>
-      <c r="O42" s="145"/>
-      <c r="P42" s="190"/>
-      <c r="Q42" s="189"/>
-      <c r="R42" s="161"/>
+      <c r="A42" s="212"/>
+      <c r="B42" s="213"/>
+      <c r="C42" s="213"/>
+      <c r="D42" s="214"/>
+      <c r="E42" s="212"/>
+      <c r="F42" s="213"/>
+      <c r="G42" s="241"/>
+      <c r="H42" s="236"/>
+      <c r="I42" s="236"/>
+      <c r="J42" s="236"/>
+      <c r="K42" s="236"/>
+      <c r="L42" s="236"/>
+      <c r="M42" s="236"/>
+      <c r="N42" s="236"/>
+      <c r="O42" s="232"/>
+      <c r="P42" s="246"/>
+      <c r="Q42" s="246"/>
+      <c r="R42" s="202"/>
       <c r="S42" s="43">
         <v>2</v>
       </c>
@@ -4885,8 +5412,8 @@
       <c r="X42" s="47">
         <v>7</v>
       </c>
-      <c r="Y42" s="91"/>
-      <c r="Z42" s="88"/>
+      <c r="Y42" s="82"/>
+      <c r="Z42" s="80"/>
       <c r="AA42" s="38"/>
       <c r="AB42" s="39"/>
       <c r="AC42" s="39"/>
@@ -4899,44 +5426,44 @@
       <c r="AJ42" s="39"/>
     </row>
     <row r="43" spans="1:36" s="37" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="181"/>
-      <c r="B43" s="182"/>
-      <c r="C43" s="182"/>
-      <c r="D43" s="181"/>
-      <c r="E43" s="181"/>
-      <c r="F43" s="195"/>
-      <c r="G43" s="134"/>
-      <c r="H43" s="167"/>
-      <c r="I43" s="146"/>
-      <c r="J43" s="146"/>
-      <c r="K43" s="146"/>
-      <c r="L43" s="146"/>
-      <c r="M43" s="146"/>
-      <c r="N43" s="146"/>
-      <c r="O43" s="146"/>
-      <c r="P43" s="146"/>
-      <c r="Q43" s="162"/>
-      <c r="R43" s="162"/>
-      <c r="S43" s="41">
+      <c r="A43" s="215"/>
+      <c r="B43" s="216"/>
+      <c r="C43" s="216"/>
+      <c r="D43" s="217"/>
+      <c r="E43" s="215"/>
+      <c r="F43" s="218"/>
+      <c r="G43" s="242"/>
+      <c r="H43" s="233"/>
+      <c r="I43" s="233"/>
+      <c r="J43" s="233"/>
+      <c r="K43" s="233"/>
+      <c r="L43" s="233"/>
+      <c r="M43" s="233"/>
+      <c r="N43" s="233"/>
+      <c r="O43" s="233"/>
+      <c r="P43" s="249"/>
+      <c r="Q43" s="247"/>
+      <c r="R43" s="203"/>
+      <c r="S43" s="55">
         <v>9</v>
       </c>
-      <c r="T43" s="42">
+      <c r="T43" s="56">
         <v>10</v>
       </c>
-      <c r="U43" s="42">
+      <c r="U43" s="56">
         <v>11</v>
       </c>
-      <c r="V43" s="42">
+      <c r="V43" s="56">
         <v>12</v>
       </c>
-      <c r="W43" s="42">
+      <c r="W43" s="56">
         <v>13</v>
       </c>
-      <c r="X43" s="69">
+      <c r="X43" s="64">
         <v>14</v>
       </c>
-      <c r="Y43" s="91"/>
-      <c r="Z43" s="92"/>
+      <c r="Y43" s="82"/>
+      <c r="Z43" s="83"/>
       <c r="AA43" s="38"/>
       <c r="AB43" s="39"/>
       <c r="AC43" s="39"/>
@@ -4949,44 +5476,44 @@
       <c r="AJ43" s="39"/>
     </row>
     <row r="44" spans="1:36" s="37" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="181"/>
-      <c r="B44" s="182"/>
-      <c r="C44" s="182"/>
-      <c r="D44" s="181"/>
-      <c r="E44" s="181"/>
-      <c r="F44" s="195"/>
-      <c r="G44" s="134"/>
-      <c r="H44" s="167"/>
-      <c r="I44" s="146"/>
-      <c r="J44" s="146"/>
-      <c r="K44" s="146"/>
-      <c r="L44" s="146"/>
-      <c r="M44" s="146"/>
-      <c r="N44" s="146"/>
-      <c r="O44" s="146"/>
-      <c r="P44" s="146"/>
-      <c r="Q44" s="162"/>
-      <c r="R44" s="162"/>
-      <c r="S44" s="41">
+      <c r="A44" s="215"/>
+      <c r="B44" s="216"/>
+      <c r="C44" s="216"/>
+      <c r="D44" s="217"/>
+      <c r="E44" s="215"/>
+      <c r="F44" s="218"/>
+      <c r="G44" s="242"/>
+      <c r="H44" s="233"/>
+      <c r="I44" s="233"/>
+      <c r="J44" s="233"/>
+      <c r="K44" s="233"/>
+      <c r="L44" s="233"/>
+      <c r="M44" s="233"/>
+      <c r="N44" s="233"/>
+      <c r="O44" s="233"/>
+      <c r="P44" s="249"/>
+      <c r="Q44" s="247"/>
+      <c r="R44" s="203"/>
+      <c r="S44" s="55">
         <v>16</v>
       </c>
-      <c r="T44" s="42">
+      <c r="T44" s="56">
         <v>17</v>
       </c>
-      <c r="U44" s="42">
+      <c r="U44" s="56">
         <v>18</v>
       </c>
-      <c r="V44" s="28">
+      <c r="V44" s="56">
         <v>19</v>
       </c>
-      <c r="W44" s="28">
+      <c r="W44" s="56">
         <v>20</v>
       </c>
-      <c r="X44" s="69">
+      <c r="X44" s="64">
         <v>21</v>
       </c>
-      <c r="Y44" s="91"/>
-      <c r="Z44" s="88"/>
+      <c r="Y44" s="82"/>
+      <c r="Z44" s="80"/>
       <c r="AA44" s="38"/>
       <c r="AB44" s="39"/>
       <c r="AC44" s="39"/>
@@ -4999,44 +5526,44 @@
       <c r="AJ44" s="39"/>
     </row>
     <row r="45" spans="1:36" s="37" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="181"/>
-      <c r="B45" s="182"/>
-      <c r="C45" s="182"/>
-      <c r="D45" s="181"/>
-      <c r="E45" s="181"/>
-      <c r="F45" s="195"/>
-      <c r="G45" s="134"/>
-      <c r="H45" s="167"/>
-      <c r="I45" s="146"/>
-      <c r="J45" s="146"/>
-      <c r="K45" s="146"/>
-      <c r="L45" s="146"/>
-      <c r="M45" s="146"/>
-      <c r="N45" s="146"/>
-      <c r="O45" s="146"/>
-      <c r="P45" s="146"/>
-      <c r="Q45" s="162"/>
-      <c r="R45" s="162"/>
-      <c r="S45" s="27">
+      <c r="A45" s="215"/>
+      <c r="B45" s="216"/>
+      <c r="C45" s="216"/>
+      <c r="D45" s="217"/>
+      <c r="E45" s="215"/>
+      <c r="F45" s="218"/>
+      <c r="G45" s="242"/>
+      <c r="H45" s="233"/>
+      <c r="I45" s="233"/>
+      <c r="J45" s="233"/>
+      <c r="K45" s="233"/>
+      <c r="L45" s="233"/>
+      <c r="M45" s="233"/>
+      <c r="N45" s="233"/>
+      <c r="O45" s="233"/>
+      <c r="P45" s="249"/>
+      <c r="Q45" s="247"/>
+      <c r="R45" s="203"/>
+      <c r="S45" s="55">
         <v>23</v>
       </c>
-      <c r="T45" s="28">
+      <c r="T45" s="56">
         <v>24</v>
       </c>
-      <c r="U45" s="28">
+      <c r="U45" s="56">
         <v>25</v>
       </c>
-      <c r="V45" s="28">
+      <c r="V45" s="56">
         <v>26</v>
       </c>
-      <c r="W45" s="28">
+      <c r="W45" s="56">
         <v>27</v>
       </c>
-      <c r="X45" s="69">
+      <c r="X45" s="64">
         <v>29</v>
       </c>
-      <c r="Y45" s="91"/>
-      <c r="Z45" s="88"/>
+      <c r="Y45" s="82"/>
+      <c r="Z45" s="80"/>
       <c r="AA45" s="38"/>
       <c r="AB45" s="39"/>
       <c r="AC45" s="39"/>
@@ -5049,24 +5576,24 @@
       <c r="AJ45" s="39"/>
     </row>
     <row r="46" spans="1:36" s="37" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="181"/>
-      <c r="B46" s="181"/>
-      <c r="C46" s="181"/>
-      <c r="D46" s="181"/>
-      <c r="E46" s="181"/>
-      <c r="F46" s="195"/>
-      <c r="G46" s="135"/>
-      <c r="H46" s="168"/>
-      <c r="I46" s="147"/>
-      <c r="J46" s="147"/>
-      <c r="K46" s="147"/>
-      <c r="L46" s="147"/>
-      <c r="M46" s="147"/>
-      <c r="N46" s="147"/>
-      <c r="O46" s="147"/>
-      <c r="P46" s="147"/>
-      <c r="Q46" s="163"/>
-      <c r="R46" s="163"/>
+      <c r="A46" s="215"/>
+      <c r="B46" s="218"/>
+      <c r="C46" s="218"/>
+      <c r="D46" s="217"/>
+      <c r="E46" s="215"/>
+      <c r="F46" s="218"/>
+      <c r="G46" s="243"/>
+      <c r="H46" s="234"/>
+      <c r="I46" s="234"/>
+      <c r="J46" s="234"/>
+      <c r="K46" s="234"/>
+      <c r="L46" s="234"/>
+      <c r="M46" s="234"/>
+      <c r="N46" s="234"/>
+      <c r="O46" s="234"/>
+      <c r="P46" s="250"/>
+      <c r="Q46" s="248"/>
+      <c r="R46" s="230"/>
       <c r="S46" s="29">
         <v>30</v>
       </c>
@@ -5076,9 +5603,9 @@
       <c r="U46" s="31"/>
       <c r="V46" s="31"/>
       <c r="W46" s="31"/>
-      <c r="X46" s="68"/>
-      <c r="Y46" s="93"/>
-      <c r="Z46" s="94"/>
+      <c r="X46" s="65"/>
+      <c r="Y46" s="82"/>
+      <c r="Z46" s="80"/>
       <c r="AA46" s="38"/>
       <c r="AB46" s="39"/>
       <c r="AC46" s="39"/>
@@ -5090,164 +5617,295 @@
       <c r="AI46" s="39"/>
       <c r="AJ46" s="39"/>
     </row>
-    <row r="47" spans="1:36" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="169"/>
-      <c r="B47" s="169"/>
-      <c r="C47" s="169"/>
-      <c r="D47" s="169"/>
-      <c r="E47" s="169"/>
-      <c r="F47" s="169"/>
-      <c r="G47" s="169"/>
-      <c r="H47" s="170" t="s">
+    <row r="47" spans="1:36" s="37" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="219"/>
+      <c r="B47" s="220"/>
+      <c r="C47" s="220"/>
+      <c r="D47" s="220"/>
+      <c r="E47" s="219"/>
+      <c r="F47" s="240"/>
+      <c r="G47" s="241"/>
+      <c r="H47" s="251"/>
+      <c r="I47" s="236"/>
+      <c r="J47" s="236"/>
+      <c r="K47" s="236"/>
+      <c r="L47" s="236"/>
+      <c r="M47" s="236"/>
+      <c r="N47" s="236"/>
+      <c r="O47" s="232"/>
+      <c r="P47" s="235"/>
+      <c r="Q47" s="231"/>
+      <c r="R47" s="202"/>
+      <c r="S47" s="43">
+        <v>2</v>
+      </c>
+      <c r="T47" s="44">
+        <v>3</v>
+      </c>
+      <c r="U47" s="44">
+        <v>4</v>
+      </c>
+      <c r="V47" s="44">
+        <v>5</v>
+      </c>
+      <c r="W47" s="44">
+        <v>6</v>
+      </c>
+      <c r="X47" s="47">
+        <v>7</v>
+      </c>
+      <c r="Y47" s="82"/>
+      <c r="Z47" s="80"/>
+      <c r="AA47" s="38"/>
+      <c r="AB47" s="39"/>
+      <c r="AC47" s="39"/>
+      <c r="AD47" s="39"/>
+      <c r="AE47" s="39"/>
+      <c r="AF47" s="39"/>
+      <c r="AG47" s="39"/>
+      <c r="AH47" s="39"/>
+      <c r="AI47" s="39"/>
+      <c r="AJ47" s="39"/>
+    </row>
+    <row r="48" spans="1:36" s="37" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="220"/>
+      <c r="B48" s="221"/>
+      <c r="C48" s="221"/>
+      <c r="D48" s="220"/>
+      <c r="E48" s="220"/>
+      <c r="F48" s="240"/>
+      <c r="G48" s="242"/>
+      <c r="H48" s="252"/>
+      <c r="I48" s="233"/>
+      <c r="J48" s="233"/>
+      <c r="K48" s="233"/>
+      <c r="L48" s="233"/>
+      <c r="M48" s="233"/>
+      <c r="N48" s="233"/>
+      <c r="O48" s="233"/>
+      <c r="P48" s="233"/>
+      <c r="Q48" s="203"/>
+      <c r="R48" s="203"/>
+      <c r="S48" s="41">
+        <v>9</v>
+      </c>
+      <c r="T48" s="42">
+        <v>10</v>
+      </c>
+      <c r="U48" s="42">
+        <v>11</v>
+      </c>
+      <c r="V48" s="42">
+        <v>12</v>
+      </c>
+      <c r="W48" s="42">
+        <v>13</v>
+      </c>
+      <c r="X48" s="66">
+        <v>14</v>
+      </c>
+      <c r="Y48" s="82"/>
+      <c r="Z48" s="83"/>
+      <c r="AA48" s="38"/>
+      <c r="AB48" s="39"/>
+      <c r="AC48" s="39"/>
+      <c r="AD48" s="39"/>
+      <c r="AE48" s="39"/>
+      <c r="AF48" s="39"/>
+      <c r="AG48" s="39"/>
+      <c r="AH48" s="39"/>
+      <c r="AI48" s="39"/>
+      <c r="AJ48" s="39"/>
+    </row>
+    <row r="49" spans="1:36" s="37" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="220"/>
+      <c r="B49" s="221"/>
+      <c r="C49" s="221"/>
+      <c r="D49" s="220"/>
+      <c r="E49" s="220"/>
+      <c r="F49" s="240"/>
+      <c r="G49" s="242"/>
+      <c r="H49" s="252"/>
+      <c r="I49" s="233"/>
+      <c r="J49" s="233"/>
+      <c r="K49" s="233"/>
+      <c r="L49" s="233"/>
+      <c r="M49" s="233"/>
+      <c r="N49" s="233"/>
+      <c r="O49" s="233"/>
+      <c r="P49" s="233"/>
+      <c r="Q49" s="203"/>
+      <c r="R49" s="203"/>
+      <c r="S49" s="41">
+        <v>16</v>
+      </c>
+      <c r="T49" s="42">
+        <v>17</v>
+      </c>
+      <c r="U49" s="42">
+        <v>18</v>
+      </c>
+      <c r="V49" s="28">
+        <v>19</v>
+      </c>
+      <c r="W49" s="28">
+        <v>20</v>
+      </c>
+      <c r="X49" s="66">
+        <v>21</v>
+      </c>
+      <c r="Y49" s="82"/>
+      <c r="Z49" s="80"/>
+      <c r="AA49" s="38"/>
+      <c r="AB49" s="39"/>
+      <c r="AC49" s="39"/>
+      <c r="AD49" s="39"/>
+      <c r="AE49" s="39"/>
+      <c r="AF49" s="39"/>
+      <c r="AG49" s="39"/>
+      <c r="AH49" s="39"/>
+      <c r="AI49" s="39"/>
+      <c r="AJ49" s="39"/>
+    </row>
+    <row r="50" spans="1:36" s="37" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="220"/>
+      <c r="B50" s="221"/>
+      <c r="C50" s="221"/>
+      <c r="D50" s="220"/>
+      <c r="E50" s="220"/>
+      <c r="F50" s="240"/>
+      <c r="G50" s="242"/>
+      <c r="H50" s="252"/>
+      <c r="I50" s="233"/>
+      <c r="J50" s="233"/>
+      <c r="K50" s="233"/>
+      <c r="L50" s="233"/>
+      <c r="M50" s="233"/>
+      <c r="N50" s="233"/>
+      <c r="O50" s="233"/>
+      <c r="P50" s="233"/>
+      <c r="Q50" s="203"/>
+      <c r="R50" s="203"/>
+      <c r="S50" s="27">
+        <v>23</v>
+      </c>
+      <c r="T50" s="28">
+        <v>24</v>
+      </c>
+      <c r="U50" s="28">
+        <v>25</v>
+      </c>
+      <c r="V50" s="28">
+        <v>26</v>
+      </c>
+      <c r="W50" s="28">
+        <v>27</v>
+      </c>
+      <c r="X50" s="66">
+        <v>29</v>
+      </c>
+      <c r="Y50" s="82"/>
+      <c r="Z50" s="80"/>
+      <c r="AA50" s="38"/>
+      <c r="AB50" s="39"/>
+      <c r="AC50" s="39"/>
+      <c r="AD50" s="39"/>
+      <c r="AE50" s="39"/>
+      <c r="AF50" s="39"/>
+      <c r="AG50" s="39"/>
+      <c r="AH50" s="39"/>
+      <c r="AI50" s="39"/>
+      <c r="AJ50" s="39"/>
+    </row>
+    <row r="51" spans="1:36" s="37" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="220"/>
+      <c r="B51" s="220"/>
+      <c r="C51" s="220"/>
+      <c r="D51" s="220"/>
+      <c r="E51" s="220"/>
+      <c r="F51" s="240"/>
+      <c r="G51" s="243"/>
+      <c r="H51" s="253"/>
+      <c r="I51" s="234"/>
+      <c r="J51" s="234"/>
+      <c r="K51" s="234"/>
+      <c r="L51" s="234"/>
+      <c r="M51" s="234"/>
+      <c r="N51" s="234"/>
+      <c r="O51" s="234"/>
+      <c r="P51" s="234"/>
+      <c r="Q51" s="230"/>
+      <c r="R51" s="230"/>
+      <c r="S51" s="29">
+        <v>30</v>
+      </c>
+      <c r="T51" s="30">
+        <v>31</v>
+      </c>
+      <c r="U51" s="31"/>
+      <c r="V51" s="31"/>
+      <c r="W51" s="31"/>
+      <c r="X51" s="65"/>
+      <c r="Y51" s="84"/>
+      <c r="Z51" s="85"/>
+      <c r="AA51" s="38"/>
+      <c r="AB51" s="39"/>
+      <c r="AC51" s="39"/>
+      <c r="AD51" s="39"/>
+      <c r="AE51" s="39"/>
+      <c r="AF51" s="39"/>
+      <c r="AG51" s="39"/>
+      <c r="AH51" s="39"/>
+      <c r="AI51" s="39"/>
+      <c r="AJ51" s="39"/>
+    </row>
+    <row r="52" spans="1:36" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="208"/>
+      <c r="B52" s="208"/>
+      <c r="C52" s="208"/>
+      <c r="D52" s="208"/>
+      <c r="E52" s="208"/>
+      <c r="F52" s="208"/>
+      <c r="G52" s="208"/>
+      <c r="H52" s="209" t="s">
         <v>35</v>
       </c>
-      <c r="I47" s="171"/>
-      <c r="J47" s="171"/>
-      <c r="K47" s="171"/>
-      <c r="L47" s="171"/>
-      <c r="M47" s="171"/>
-      <c r="N47" s="171"/>
-      <c r="O47" s="171"/>
-      <c r="P47" s="172"/>
-      <c r="R47" s="45">
-        <f>Q33+R37+R42</f>
-        <v>108</v>
-      </c>
-      <c r="X47" s="32"/>
-      <c r="Y47" s="95"/>
-      <c r="Z47" s="96"/>
-      <c r="AA47" s="5"/>
-      <c r="AB47" s="6"/>
-      <c r="AC47" s="6"/>
-      <c r="AD47" s="6"/>
-      <c r="AE47" s="6"/>
-      <c r="AF47" s="6"/>
-      <c r="AG47" s="6"/>
-      <c r="AH47" s="6"/>
-      <c r="AI47" s="6"/>
-      <c r="AJ47" s="6"/>
-    </row>
-    <row r="48" spans="1:36" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="8"/>
-      <c r="B48" s="8"/>
-      <c r="C48" s="8"/>
-      <c r="E48" s="8"/>
-      <c r="F48" s="8"/>
-      <c r="G48" s="8"/>
-      <c r="O48" s="9"/>
-      <c r="P48" s="8"/>
-      <c r="Y48" s="71"/>
-      <c r="Z48" s="1"/>
-      <c r="AA48" s="1"/>
-      <c r="AB48" s="1"/>
-      <c r="AC48" s="1"/>
-      <c r="AD48" s="1"/>
-      <c r="AE48" s="1"/>
-      <c r="AF48" s="1"/>
-      <c r="AG48" s="1"/>
-      <c r="AH48" s="1"/>
-      <c r="AI48" s="1"/>
-      <c r="AJ48" s="1"/>
-    </row>
-    <row r="49" spans="1:36" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="8"/>
-      <c r="B49" s="8"/>
-      <c r="C49" s="8"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
-      <c r="O49" s="8"/>
-      <c r="P49" s="8"/>
-      <c r="Y49" s="57"/>
-      <c r="Z49" s="1"/>
-      <c r="AA49" s="1"/>
-      <c r="AB49" s="1"/>
-      <c r="AC49" s="1"/>
-      <c r="AD49" s="1"/>
-      <c r="AE49" s="1"/>
-      <c r="AF49" s="1"/>
-      <c r="AG49" s="1"/>
-      <c r="AH49" s="1"/>
-      <c r="AI49" s="1"/>
-      <c r="AJ49" s="1"/>
-    </row>
-    <row r="50" spans="1:36" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="8"/>
-      <c r="B50" s="8"/>
-      <c r="C50" s="8"/>
-      <c r="E50" s="8"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="8"/>
-      <c r="O50" s="8"/>
-      <c r="P50" s="8"/>
-      <c r="Y50" s="70"/>
-      <c r="Z50" s="1"/>
-      <c r="AA50" s="1"/>
-      <c r="AB50" s="1"/>
-      <c r="AC50" s="1"/>
-      <c r="AD50" s="1"/>
-      <c r="AE50" s="1"/>
-      <c r="AF50" s="1"/>
-      <c r="AG50" s="1"/>
-      <c r="AH50" s="1"/>
-      <c r="AI50" s="1"/>
-      <c r="AJ50" s="1"/>
-    </row>
-    <row r="51" spans="1:36" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="8"/>
-      <c r="B51" s="8"/>
-      <c r="C51" s="8"/>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8"/>
-      <c r="O51" s="8"/>
-      <c r="P51" s="8"/>
-      <c r="Q51" s="8"/>
-      <c r="Y51" s="57"/>
-      <c r="Z51" s="1"/>
-      <c r="AA51" s="1"/>
-      <c r="AB51" s="1"/>
-      <c r="AC51" s="1"/>
-      <c r="AD51" s="1"/>
-      <c r="AE51" s="1"/>
-      <c r="AF51" s="1"/>
-      <c r="AG51" s="1"/>
-      <c r="AH51" s="1"/>
-      <c r="AI51" s="1"/>
-      <c r="AJ51" s="1"/>
-    </row>
-    <row r="52" spans="1:36" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="8"/>
-      <c r="B52" s="8"/>
-      <c r="C52" s="8"/>
-      <c r="E52" s="8"/>
-      <c r="F52" s="8"/>
-      <c r="G52" s="8"/>
-      <c r="O52" s="8"/>
-      <c r="P52" s="8"/>
-      <c r="Y52" s="70"/>
-      <c r="Z52" s="1"/>
-      <c r="AA52" s="1"/>
-      <c r="AB52" s="1"/>
-      <c r="AC52" s="1"/>
-      <c r="AD52" s="1"/>
-      <c r="AE52" s="1"/>
-      <c r="AF52" s="1"/>
-      <c r="AG52" s="1"/>
-      <c r="AH52" s="1"/>
-      <c r="AI52" s="1"/>
-      <c r="AJ52" s="1"/>
-    </row>
-    <row r="53" spans="1:36" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I52" s="210"/>
+      <c r="J52" s="210"/>
+      <c r="K52" s="210"/>
+      <c r="L52" s="210"/>
+      <c r="M52" s="210"/>
+      <c r="N52" s="210"/>
+      <c r="O52" s="210"/>
+      <c r="P52" s="211"/>
+      <c r="R52" s="45">
+        <f>Q38+R42+R47</f>
+        <v>118</v>
+      </c>
+      <c r="X52" s="32"/>
+      <c r="Y52" s="86"/>
+      <c r="Z52" s="87"/>
+      <c r="AA52" s="5"/>
+      <c r="AB52" s="6"/>
+      <c r="AC52" s="6"/>
+      <c r="AD52" s="6"/>
+      <c r="AE52" s="6"/>
+      <c r="AF52" s="6"/>
+      <c r="AG52" s="6"/>
+      <c r="AH52" s="6"/>
+      <c r="AI52" s="6"/>
+      <c r="AJ52" s="6"/>
+    </row>
+    <row r="53" spans="1:36" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="8"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
-      <c r="O53" s="8"/>
+      <c r="O53" s="9"/>
       <c r="P53" s="8"/>
-      <c r="Y53" s="57"/>
+      <c r="Y53" s="68"/>
       <c r="Z53" s="1"/>
       <c r="AA53" s="1"/>
       <c r="AB53" s="1"/>
@@ -5269,7 +5927,7 @@
       <c r="G54" s="8"/>
       <c r="O54" s="8"/>
       <c r="P54" s="8"/>
-      <c r="Y54" s="1"/>
+      <c r="Y54" s="54"/>
       <c r="Z54" s="1"/>
       <c r="AA54" s="1"/>
       <c r="AB54" s="1"/>
@@ -5282,7 +5940,7 @@
       <c r="AI54" s="1"/>
       <c r="AJ54" s="1"/>
     </row>
-    <row r="55" spans="1:36" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:36" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="8"/>
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
@@ -5291,7 +5949,7 @@
       <c r="G55" s="8"/>
       <c r="O55" s="8"/>
       <c r="P55" s="8"/>
-      <c r="Y55" s="1"/>
+      <c r="Y55" s="67"/>
       <c r="Z55" s="1"/>
       <c r="AA55" s="1"/>
       <c r="AB55" s="1"/>
@@ -5313,7 +5971,8 @@
       <c r="G56" s="8"/>
       <c r="O56" s="8"/>
       <c r="P56" s="8"/>
-      <c r="Y56" s="1"/>
+      <c r="Q56" s="8"/>
+      <c r="Y56" s="54"/>
       <c r="Z56" s="1"/>
       <c r="AA56" s="1"/>
       <c r="AB56" s="1"/>
@@ -5326,7 +5985,7 @@
       <c r="AI56" s="1"/>
       <c r="AJ56" s="1"/>
     </row>
-    <row r="57" spans="1:36" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:36" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="8"/>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
@@ -5335,7 +5994,7 @@
       <c r="G57" s="8"/>
       <c r="O57" s="8"/>
       <c r="P57" s="8"/>
-      <c r="Y57" s="1"/>
+      <c r="Y57" s="67"/>
       <c r="Z57" s="1"/>
       <c r="AA57" s="1"/>
       <c r="AB57" s="1"/>
@@ -5357,7 +6016,7 @@
       <c r="G58" s="8"/>
       <c r="O58" s="8"/>
       <c r="P58" s="8"/>
-      <c r="Y58" s="1"/>
+      <c r="Y58" s="54"/>
       <c r="Z58" s="1"/>
       <c r="AA58" s="1"/>
       <c r="AB58" s="1"/>
@@ -26226,53 +26885,202 @@
       <c r="AI1006" s="1"/>
       <c r="AJ1006" s="1"/>
     </row>
+    <row r="1007" spans="1:36" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1007" s="8"/>
+      <c r="B1007" s="8"/>
+      <c r="C1007" s="8"/>
+      <c r="E1007" s="8"/>
+      <c r="F1007" s="8"/>
+      <c r="G1007" s="8"/>
+      <c r="O1007" s="8"/>
+      <c r="P1007" s="8"/>
+      <c r="Y1007" s="1"/>
+      <c r="Z1007" s="1"/>
+      <c r="AA1007" s="1"/>
+      <c r="AB1007" s="1"/>
+      <c r="AC1007" s="1"/>
+      <c r="AD1007" s="1"/>
+      <c r="AE1007" s="1"/>
+      <c r="AF1007" s="1"/>
+      <c r="AG1007" s="1"/>
+      <c r="AH1007" s="1"/>
+      <c r="AI1007" s="1"/>
+      <c r="AJ1007" s="1"/>
+    </row>
+    <row r="1008" spans="1:36" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1008" s="8"/>
+      <c r="B1008" s="8"/>
+      <c r="C1008" s="8"/>
+      <c r="E1008" s="8"/>
+      <c r="F1008" s="8"/>
+      <c r="G1008" s="8"/>
+      <c r="O1008" s="8"/>
+      <c r="P1008" s="8"/>
+      <c r="Y1008" s="1"/>
+      <c r="Z1008" s="1"/>
+      <c r="AA1008" s="1"/>
+      <c r="AB1008" s="1"/>
+      <c r="AC1008" s="1"/>
+      <c r="AD1008" s="1"/>
+      <c r="AE1008" s="1"/>
+      <c r="AF1008" s="1"/>
+      <c r="AG1008" s="1"/>
+      <c r="AH1008" s="1"/>
+      <c r="AI1008" s="1"/>
+      <c r="AJ1008" s="1"/>
+    </row>
+    <row r="1009" spans="1:36" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1009" s="8"/>
+      <c r="B1009" s="8"/>
+      <c r="C1009" s="8"/>
+      <c r="E1009" s="8"/>
+      <c r="F1009" s="8"/>
+      <c r="G1009" s="8"/>
+      <c r="O1009" s="8"/>
+      <c r="P1009" s="8"/>
+      <c r="Y1009" s="1"/>
+      <c r="Z1009" s="1"/>
+      <c r="AA1009" s="1"/>
+      <c r="AB1009" s="1"/>
+      <c r="AC1009" s="1"/>
+      <c r="AD1009" s="1"/>
+      <c r="AE1009" s="1"/>
+      <c r="AF1009" s="1"/>
+      <c r="AG1009" s="1"/>
+      <c r="AH1009" s="1"/>
+      <c r="AI1009" s="1"/>
+      <c r="AJ1009" s="1"/>
+    </row>
+    <row r="1010" spans="1:36" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1010" s="8"/>
+      <c r="B1010" s="8"/>
+      <c r="C1010" s="8"/>
+      <c r="E1010" s="8"/>
+      <c r="F1010" s="8"/>
+      <c r="G1010" s="8"/>
+      <c r="O1010" s="8"/>
+      <c r="P1010" s="8"/>
+      <c r="Y1010" s="1"/>
+      <c r="Z1010" s="1"/>
+      <c r="AA1010" s="1"/>
+      <c r="AB1010" s="1"/>
+      <c r="AC1010" s="1"/>
+      <c r="AD1010" s="1"/>
+      <c r="AE1010" s="1"/>
+      <c r="AF1010" s="1"/>
+      <c r="AG1010" s="1"/>
+      <c r="AH1010" s="1"/>
+      <c r="AI1010" s="1"/>
+      <c r="AJ1010" s="1"/>
+    </row>
+    <row r="1011" spans="1:36" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1011" s="8"/>
+      <c r="B1011" s="8"/>
+      <c r="C1011" s="8"/>
+      <c r="E1011" s="8"/>
+      <c r="F1011" s="8"/>
+      <c r="G1011" s="8"/>
+      <c r="O1011" s="8"/>
+      <c r="P1011" s="8"/>
+      <c r="Y1011" s="1"/>
+      <c r="Z1011" s="1"/>
+      <c r="AA1011" s="1"/>
+      <c r="AB1011" s="1"/>
+      <c r="AC1011" s="1"/>
+      <c r="AD1011" s="1"/>
+      <c r="AE1011" s="1"/>
+      <c r="AF1011" s="1"/>
+      <c r="AG1011" s="1"/>
+      <c r="AH1011" s="1"/>
+      <c r="AI1011" s="1"/>
+      <c r="AJ1011" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="149">
-    <mergeCell ref="J28:J32"/>
-    <mergeCell ref="K28:K32"/>
-    <mergeCell ref="L28:L32"/>
-    <mergeCell ref="M28:M32"/>
-    <mergeCell ref="J13:J17"/>
-    <mergeCell ref="N18:N22"/>
-    <mergeCell ref="O18:O22"/>
+  <mergeCells count="168">
+    <mergeCell ref="Y23:AA27"/>
+    <mergeCell ref="Y18:AA22"/>
+    <mergeCell ref="I28:I32"/>
+    <mergeCell ref="D13:D17"/>
+    <mergeCell ref="H10:M10"/>
+    <mergeCell ref="I18:I22"/>
+    <mergeCell ref="J18:J22"/>
+    <mergeCell ref="K18:K22"/>
+    <mergeCell ref="L18:L22"/>
+    <mergeCell ref="M18:M22"/>
+    <mergeCell ref="H13:H17"/>
+    <mergeCell ref="M13:M17"/>
+    <mergeCell ref="K13:K17"/>
+    <mergeCell ref="L13:L17"/>
+    <mergeCell ref="D23:D27"/>
+    <mergeCell ref="G23:G27"/>
+    <mergeCell ref="H23:H27"/>
+    <mergeCell ref="I23:I27"/>
+    <mergeCell ref="J23:J27"/>
     <mergeCell ref="K23:K27"/>
     <mergeCell ref="L23:L27"/>
     <mergeCell ref="M23:M27"/>
-    <mergeCell ref="N23:N27"/>
-    <mergeCell ref="Y9:Z9"/>
-    <mergeCell ref="N28:N32"/>
-    <mergeCell ref="O28:O32"/>
-    <mergeCell ref="P28:P32"/>
-    <mergeCell ref="Q28:Q32"/>
-    <mergeCell ref="R28:R32"/>
-    <mergeCell ref="P18:P22"/>
-    <mergeCell ref="Q18:Q22"/>
-    <mergeCell ref="R18:R22"/>
-    <mergeCell ref="P23:P27"/>
-    <mergeCell ref="Q23:Q27"/>
-    <mergeCell ref="R23:R27"/>
-    <mergeCell ref="Y18:AA21"/>
-    <mergeCell ref="Y23:AA26"/>
-    <mergeCell ref="A28:A32"/>
-    <mergeCell ref="B28:B32"/>
-    <mergeCell ref="C28:C32"/>
-    <mergeCell ref="D28:D32"/>
-    <mergeCell ref="E28:E32"/>
-    <mergeCell ref="F28:F32"/>
-    <mergeCell ref="G28:G32"/>
-    <mergeCell ref="H28:H32"/>
-    <mergeCell ref="I28:I32"/>
-    <mergeCell ref="A18:A22"/>
-    <mergeCell ref="B18:B22"/>
-    <mergeCell ref="C18:C22"/>
-    <mergeCell ref="D18:D22"/>
-    <mergeCell ref="E18:E22"/>
-    <mergeCell ref="F18:F22"/>
-    <mergeCell ref="G18:G22"/>
-    <mergeCell ref="H18:H22"/>
-    <mergeCell ref="A23:A27"/>
-    <mergeCell ref="R33:W33"/>
-    <mergeCell ref="H33:O33"/>
+    <mergeCell ref="F23:F27"/>
+    <mergeCell ref="E23:E27"/>
+    <mergeCell ref="A39:W39"/>
+    <mergeCell ref="G42:G46"/>
+    <mergeCell ref="B2:C4"/>
+    <mergeCell ref="B5:C7"/>
+    <mergeCell ref="D3:F7"/>
+    <mergeCell ref="G3:N3"/>
+    <mergeCell ref="G4:N4"/>
+    <mergeCell ref="G5:N5"/>
+    <mergeCell ref="G6:N6"/>
+    <mergeCell ref="O3:V3"/>
+    <mergeCell ref="O4:V4"/>
+    <mergeCell ref="O5:V5"/>
+    <mergeCell ref="O6:V6"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="O42:O46"/>
+    <mergeCell ref="N42:N46"/>
+    <mergeCell ref="O40:O41"/>
+    <mergeCell ref="P40:P41"/>
+    <mergeCell ref="Q40:Q41"/>
+    <mergeCell ref="H42:H46"/>
+    <mergeCell ref="I42:I46"/>
+    <mergeCell ref="K42:K46"/>
+    <mergeCell ref="J42:J46"/>
+    <mergeCell ref="M42:M46"/>
+    <mergeCell ref="L47:L51"/>
+    <mergeCell ref="E40:F41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="H40:M40"/>
+    <mergeCell ref="R40:R41"/>
+    <mergeCell ref="Q42:Q46"/>
+    <mergeCell ref="R42:R46"/>
+    <mergeCell ref="L42:L46"/>
+    <mergeCell ref="P42:P46"/>
+    <mergeCell ref="H47:H51"/>
+    <mergeCell ref="S40:X40"/>
+    <mergeCell ref="A52:G52"/>
+    <mergeCell ref="H52:P52"/>
+    <mergeCell ref="A42:D46"/>
+    <mergeCell ref="E42:F46"/>
+    <mergeCell ref="A47:D51"/>
+    <mergeCell ref="A40:D41"/>
+    <mergeCell ref="D2:X2"/>
+    <mergeCell ref="R47:R51"/>
+    <mergeCell ref="Q47:Q51"/>
+    <mergeCell ref="O47:O51"/>
+    <mergeCell ref="P47:P51"/>
+    <mergeCell ref="M47:M51"/>
+    <mergeCell ref="N47:N51"/>
+    <mergeCell ref="E13:E17"/>
+    <mergeCell ref="F13:F17"/>
+    <mergeCell ref="S10:X11"/>
+    <mergeCell ref="R10:R11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E47:F51"/>
+    <mergeCell ref="G47:G51"/>
+    <mergeCell ref="K47:K51"/>
+    <mergeCell ref="I47:I51"/>
+    <mergeCell ref="J47:J51"/>
+    <mergeCell ref="R38:W38"/>
+    <mergeCell ref="H38:O38"/>
     <mergeCell ref="Q10:Q11"/>
     <mergeCell ref="O10:O11"/>
     <mergeCell ref="P10:P11"/>
@@ -26295,91 +27103,71 @@
     <mergeCell ref="G10:G11"/>
     <mergeCell ref="G13:G17"/>
     <mergeCell ref="C13:C17"/>
-    <mergeCell ref="S35:X35"/>
-    <mergeCell ref="A47:G47"/>
-    <mergeCell ref="H47:P47"/>
-    <mergeCell ref="A37:D41"/>
-    <mergeCell ref="E37:F41"/>
-    <mergeCell ref="A42:D46"/>
-    <mergeCell ref="A35:D36"/>
-    <mergeCell ref="D2:X2"/>
-    <mergeCell ref="R42:R46"/>
-    <mergeCell ref="Q42:Q46"/>
-    <mergeCell ref="O42:O46"/>
-    <mergeCell ref="P42:P46"/>
-    <mergeCell ref="M42:M46"/>
-    <mergeCell ref="N42:N46"/>
-    <mergeCell ref="E13:E17"/>
-    <mergeCell ref="F13:F17"/>
-    <mergeCell ref="S10:X11"/>
-    <mergeCell ref="R10:R11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="E42:F46"/>
-    <mergeCell ref="G42:G46"/>
-    <mergeCell ref="K42:K46"/>
-    <mergeCell ref="I42:I46"/>
-    <mergeCell ref="J42:J46"/>
-    <mergeCell ref="L42:L46"/>
-    <mergeCell ref="E35:F36"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="H35:M35"/>
-    <mergeCell ref="R35:R36"/>
-    <mergeCell ref="Q37:Q41"/>
-    <mergeCell ref="R37:R41"/>
-    <mergeCell ref="L37:L41"/>
-    <mergeCell ref="P37:P41"/>
-    <mergeCell ref="H42:H46"/>
-    <mergeCell ref="A34:W34"/>
-    <mergeCell ref="G37:G41"/>
-    <mergeCell ref="B2:C4"/>
-    <mergeCell ref="B5:C7"/>
-    <mergeCell ref="D3:F7"/>
-    <mergeCell ref="G3:N3"/>
-    <mergeCell ref="G4:N4"/>
-    <mergeCell ref="G5:N5"/>
-    <mergeCell ref="G6:N6"/>
-    <mergeCell ref="O3:V3"/>
-    <mergeCell ref="O4:V4"/>
-    <mergeCell ref="O5:V5"/>
-    <mergeCell ref="O6:V6"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="O37:O41"/>
-    <mergeCell ref="N37:N41"/>
-    <mergeCell ref="O35:O36"/>
-    <mergeCell ref="P35:P36"/>
-    <mergeCell ref="Q35:Q36"/>
-    <mergeCell ref="H37:H41"/>
-    <mergeCell ref="I37:I41"/>
-    <mergeCell ref="K37:K41"/>
-    <mergeCell ref="J37:J41"/>
-    <mergeCell ref="M37:M41"/>
-    <mergeCell ref="Y10:AA11"/>
+    <mergeCell ref="A18:A22"/>
+    <mergeCell ref="B18:B22"/>
+    <mergeCell ref="C18:C22"/>
+    <mergeCell ref="D18:D22"/>
+    <mergeCell ref="E18:E22"/>
+    <mergeCell ref="F18:F22"/>
+    <mergeCell ref="G18:G22"/>
+    <mergeCell ref="H18:H22"/>
+    <mergeCell ref="A28:A32"/>
+    <mergeCell ref="B28:B32"/>
+    <mergeCell ref="C28:C32"/>
+    <mergeCell ref="D28:D32"/>
+    <mergeCell ref="E28:E32"/>
+    <mergeCell ref="F28:F32"/>
+    <mergeCell ref="G28:G32"/>
+    <mergeCell ref="H28:H32"/>
+    <mergeCell ref="A23:A27"/>
     <mergeCell ref="B23:B27"/>
     <mergeCell ref="C23:C27"/>
-    <mergeCell ref="D23:D27"/>
-    <mergeCell ref="E23:E27"/>
-    <mergeCell ref="F23:F27"/>
-    <mergeCell ref="G23:G27"/>
-    <mergeCell ref="H23:H27"/>
-    <mergeCell ref="J23:J27"/>
-    <mergeCell ref="I23:I27"/>
-    <mergeCell ref="D13:D17"/>
-    <mergeCell ref="H10:M10"/>
-    <mergeCell ref="I18:I22"/>
-    <mergeCell ref="J18:J22"/>
-    <mergeCell ref="K18:K22"/>
-    <mergeCell ref="L18:L22"/>
-    <mergeCell ref="M18:M22"/>
-    <mergeCell ref="H13:H17"/>
+    <mergeCell ref="A33:A37"/>
+    <mergeCell ref="B33:B37"/>
+    <mergeCell ref="C33:C37"/>
+    <mergeCell ref="D33:D37"/>
+    <mergeCell ref="E33:E37"/>
+    <mergeCell ref="F33:F37"/>
+    <mergeCell ref="G33:G37"/>
+    <mergeCell ref="H33:H37"/>
+    <mergeCell ref="I33:I37"/>
+    <mergeCell ref="Y9:Z9"/>
+    <mergeCell ref="N33:N37"/>
+    <mergeCell ref="O33:O37"/>
+    <mergeCell ref="P33:P37"/>
+    <mergeCell ref="Q33:Q37"/>
+    <mergeCell ref="R33:R37"/>
+    <mergeCell ref="P18:P22"/>
+    <mergeCell ref="Q18:Q22"/>
+    <mergeCell ref="R18:R22"/>
+    <mergeCell ref="P28:P32"/>
+    <mergeCell ref="Q28:Q32"/>
+    <mergeCell ref="R28:R32"/>
+    <mergeCell ref="Y28:AA31"/>
+    <mergeCell ref="Y10:AA11"/>
     <mergeCell ref="O13:O17"/>
     <mergeCell ref="N13:N17"/>
-    <mergeCell ref="M13:M17"/>
-    <mergeCell ref="K13:K17"/>
-    <mergeCell ref="L13:L17"/>
+    <mergeCell ref="O28:O32"/>
+    <mergeCell ref="N23:N27"/>
     <mergeCell ref="O23:O27"/>
+    <mergeCell ref="P23:P27"/>
+    <mergeCell ref="Q23:Q27"/>
+    <mergeCell ref="R23:R27"/>
+    <mergeCell ref="J33:J37"/>
+    <mergeCell ref="K33:K37"/>
+    <mergeCell ref="L33:L37"/>
+    <mergeCell ref="M33:M37"/>
+    <mergeCell ref="J13:J17"/>
+    <mergeCell ref="N18:N22"/>
+    <mergeCell ref="O18:O22"/>
+    <mergeCell ref="K28:K32"/>
+    <mergeCell ref="L28:L32"/>
+    <mergeCell ref="M28:M32"/>
+    <mergeCell ref="N28:N32"/>
+    <mergeCell ref="J28:J32"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O37:O46">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O42:O51">
       <formula1>Actividad</formula1>
     </dataValidation>
   </dataValidations>
@@ -26396,7 +27184,7 @@
           <x14:formula1>
             <xm:f>Hoja1!$A$1:$A$8</xm:f>
           </x14:formula1>
-          <xm:sqref>G37:G46</xm:sqref>
+          <xm:sqref>G42:G51</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
